--- a/갈다북클럽리뉴얼_wbs_v0.11_220929.xlsx
+++ b/갈다북클럽리뉴얼_wbs_v0.11_220929.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" tabRatio="727" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9252" tabRatio="727" firstSheet="7" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="16" r:id="rId1"/>
@@ -28,6 +28,8 @@
     <sheet name="기능명세 CRUD 분석" sheetId="15" r:id="rId14"/>
     <sheet name="테이블 추출" sheetId="17" r:id="rId15"/>
     <sheet name="SP and API" sheetId="18" r:id="rId16"/>
+    <sheet name="ERD 작성" sheetId="19" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="20" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">FO및BO기능설명!$A$1:$G$20</definedName>
@@ -764,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="583">
   <si>
     <t>WBS 번호</t>
   </si>
@@ -4956,6 +4958,29 @@
   </si>
   <si>
     <t>전 인원</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logical</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>hysical</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㅇ</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -7383,33 +7408,6 @@
     <xf numFmtId="0" fontId="116" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7439,14 +7437,44 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="38" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="51" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -7456,9 +7484,6 @@
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7477,19 +7502,35 @@
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="77" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7497,22 +7538,8 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7528,6 +7555,11 @@
     <xf numFmtId="0" fontId="77" fillId="16" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="86" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7539,20 +7571,31 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="19" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="77" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="88" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7577,24 +7620,6 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="106" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="116" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7996,6 +8021,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>333604</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>3103</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="4731663"/>
+          <a:ext cx="9454744" cy="3988720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="536594"/>
+          <a:ext cx="9189720" cy="3959260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -8640,10 +8746,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="19.2">
       <c r="A1" s="123"/>
-      <c r="B1" s="326" t="s">
+      <c r="B1" s="331" t="s">
         <v>348</v>
       </c>
-      <c r="C1" s="327"/>
+      <c r="C1" s="332"/>
       <c r="D1" s="123"/>
       <c r="E1" s="123"/>
       <c r="F1" s="123"/>
@@ -8672,19 +8778,19 @@
     </row>
     <row r="2" spans="1:26" ht="19.2">
       <c r="A2" s="123"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
       <c r="D2" s="123"/>
       <c r="E2" s="123"/>
       <c r="F2" s="123"/>
       <c r="G2" s="123"/>
-      <c r="H2" s="329" t="s">
+      <c r="H2" s="334" t="s">
         <v>301</v>
       </c>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
-      <c r="K2" s="327"/>
-      <c r="L2" s="327"/>
+      <c r="I2" s="332"/>
+      <c r="J2" s="332"/>
+      <c r="K2" s="332"/>
+      <c r="L2" s="332"/>
       <c r="M2" s="125"/>
       <c r="N2" s="126"/>
       <c r="O2" s="126"/>
@@ -8702,17 +8808,17 @@
     </row>
     <row r="3" spans="1:26" ht="19.2">
       <c r="A3" s="123"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
       <c r="D3" s="123"/>
       <c r="E3" s="123"/>
       <c r="F3" s="123"/>
       <c r="G3" s="123"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
-      <c r="K3" s="327"/>
-      <c r="L3" s="327"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
+      <c r="K3" s="332"/>
+      <c r="L3" s="332"/>
       <c r="M3" s="127" t="s">
         <v>302</v>
       </c>
@@ -8732,17 +8838,17 @@
     </row>
     <row r="4" spans="1:26" ht="19.2">
       <c r="A4" s="123"/>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
       <c r="D4" s="123"/>
       <c r="E4" s="123"/>
       <c r="F4" s="123"/>
       <c r="G4" s="123"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
-      <c r="K4" s="328"/>
-      <c r="L4" s="328"/>
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
+      <c r="K4" s="333"/>
+      <c r="L4" s="333"/>
       <c r="M4" s="127" t="s">
         <v>303</v>
       </c>
@@ -8815,20 +8921,20 @@
       <c r="Z5" s="126"/>
     </row>
     <row r="6" spans="1:26" ht="15.6" hidden="1">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="306" t="s">
         <v>315</v>
       </c>
-      <c r="B6" s="309" t="s">
+      <c r="B6" s="306" t="s">
         <v>315</v>
       </c>
-      <c r="C6" s="330" t="s">
+      <c r="C6" s="335" t="s">
         <v>349</v>
       </c>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="312"/>
-      <c r="H6" s="306" t="s">
+      <c r="D6" s="320"/>
+      <c r="E6" s="320"/>
+      <c r="F6" s="320"/>
+      <c r="G6" s="320"/>
+      <c r="H6" s="317" t="s">
         <v>316</v>
       </c>
       <c r="I6" s="133" t="s">
@@ -8839,7 +8945,7 @@
       <c r="L6" s="135">
         <v>0</v>
       </c>
-      <c r="M6" s="306" t="s">
+      <c r="M6" s="317" t="s">
         <v>318</v>
       </c>
       <c r="N6" s="126"/>
@@ -8857,14 +8963,14 @@
       <c r="Z6" s="126"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" hidden="1">
-      <c r="A7" s="315"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
-      <c r="D7" s="315"/>
-      <c r="E7" s="315"/>
-      <c r="F7" s="315"/>
-      <c r="G7" s="315"/>
-      <c r="H7" s="315"/>
+      <c r="A7" s="309"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
+      <c r="D7" s="309"/>
+      <c r="E7" s="309"/>
+      <c r="F7" s="309"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
       <c r="I7" s="133" t="s">
         <v>319</v>
       </c>
@@ -8873,7 +8979,7 @@
       <c r="L7" s="137">
         <v>0</v>
       </c>
-      <c r="M7" s="315"/>
+      <c r="M7" s="309"/>
       <c r="N7" s="126"/>
       <c r="O7" s="126"/>
       <c r="P7" s="126"/>
@@ -8889,14 +8995,14 @@
       <c r="Z7" s="126"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" hidden="1">
-      <c r="A8" s="315"/>
-      <c r="B8" s="315"/>
-      <c r="C8" s="315"/>
-      <c r="D8" s="315"/>
-      <c r="E8" s="315"/>
-      <c r="F8" s="315"/>
-      <c r="G8" s="315"/>
-      <c r="H8" s="315"/>
+      <c r="A8" s="309"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="309"/>
+      <c r="D8" s="309"/>
+      <c r="E8" s="309"/>
+      <c r="F8" s="309"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
       <c r="I8" s="133" t="s">
         <v>320</v>
       </c>
@@ -8905,7 +9011,7 @@
       <c r="L8" s="136">
         <v>0</v>
       </c>
-      <c r="M8" s="315"/>
+      <c r="M8" s="309"/>
       <c r="N8" s="126"/>
       <c r="O8" s="126"/>
       <c r="P8" s="126"/>
@@ -8921,14 +9027,14 @@
       <c r="Z8" s="126"/>
     </row>
     <row r="9" spans="1:26" ht="15.6" hidden="1">
-      <c r="A9" s="315"/>
-      <c r="B9" s="315"/>
-      <c r="C9" s="315"/>
-      <c r="D9" s="315"/>
-      <c r="E9" s="315"/>
-      <c r="F9" s="315"/>
-      <c r="G9" s="315"/>
-      <c r="H9" s="315"/>
+      <c r="A9" s="309"/>
+      <c r="B9" s="309"/>
+      <c r="C9" s="309"/>
+      <c r="D9" s="309"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="309"/>
+      <c r="G9" s="309"/>
+      <c r="H9" s="309"/>
       <c r="I9" s="133" t="s">
         <v>321</v>
       </c>
@@ -8937,7 +9043,7 @@
       <c r="L9" s="136">
         <v>0</v>
       </c>
-      <c r="M9" s="315"/>
+      <c r="M9" s="309"/>
       <c r="N9" s="126"/>
       <c r="O9" s="126"/>
       <c r="P9" s="126"/>
@@ -8953,14 +9059,14 @@
       <c r="Z9" s="126"/>
     </row>
     <row r="10" spans="1:26" ht="15.6" hidden="1">
-      <c r="A10" s="315"/>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
-      <c r="D10" s="315"/>
-      <c r="E10" s="315"/>
-      <c r="F10" s="315"/>
-      <c r="G10" s="315"/>
-      <c r="H10" s="315"/>
+      <c r="A10" s="309"/>
+      <c r="B10" s="309"/>
+      <c r="C10" s="309"/>
+      <c r="D10" s="309"/>
+      <c r="E10" s="309"/>
+      <c r="F10" s="309"/>
+      <c r="G10" s="309"/>
+      <c r="H10" s="309"/>
       <c r="I10" s="133" t="s">
         <v>322</v>
       </c>
@@ -8969,7 +9075,7 @@
       <c r="L10" s="136">
         <v>0</v>
       </c>
-      <c r="M10" s="315"/>
+      <c r="M10" s="309"/>
       <c r="N10" s="126"/>
       <c r="O10" s="126"/>
       <c r="P10" s="126"/>
@@ -8985,14 +9091,14 @@
       <c r="Z10" s="126"/>
     </row>
     <row r="11" spans="1:26" ht="15.6" hidden="1">
-      <c r="A11" s="315"/>
-      <c r="B11" s="315"/>
-      <c r="C11" s="315"/>
-      <c r="D11" s="315"/>
-      <c r="E11" s="315"/>
-      <c r="F11" s="315"/>
-      <c r="G11" s="315"/>
-      <c r="H11" s="315"/>
+      <c r="A11" s="309"/>
+      <c r="B11" s="309"/>
+      <c r="C11" s="309"/>
+      <c r="D11" s="309"/>
+      <c r="E11" s="309"/>
+      <c r="F11" s="309"/>
+      <c r="G11" s="309"/>
+      <c r="H11" s="309"/>
       <c r="I11" s="133" t="s">
         <v>323</v>
       </c>
@@ -9001,7 +9107,7 @@
       <c r="L11" s="136">
         <v>0</v>
       </c>
-      <c r="M11" s="315"/>
+      <c r="M11" s="309"/>
       <c r="N11" s="126"/>
       <c r="O11" s="126"/>
       <c r="P11" s="126"/>
@@ -9017,14 +9123,14 @@
       <c r="Z11" s="126"/>
     </row>
     <row r="12" spans="1:26" ht="15.6" hidden="1">
-      <c r="A12" s="315"/>
-      <c r="B12" s="315"/>
-      <c r="C12" s="315"/>
-      <c r="D12" s="315"/>
-      <c r="E12" s="315"/>
-      <c r="F12" s="315"/>
-      <c r="G12" s="315"/>
-      <c r="H12" s="315"/>
+      <c r="A12" s="309"/>
+      <c r="B12" s="309"/>
+      <c r="C12" s="309"/>
+      <c r="D12" s="309"/>
+      <c r="E12" s="309"/>
+      <c r="F12" s="309"/>
+      <c r="G12" s="309"/>
+      <c r="H12" s="309"/>
       <c r="I12" s="133" t="s">
         <v>324</v>
       </c>
@@ -9033,7 +9139,7 @@
       <c r="L12" s="136">
         <v>0</v>
       </c>
-      <c r="M12" s="315"/>
+      <c r="M12" s="309"/>
       <c r="N12" s="126"/>
       <c r="O12" s="126"/>
       <c r="P12" s="126"/>
@@ -9049,14 +9155,14 @@
       <c r="Z12" s="126"/>
     </row>
     <row r="13" spans="1:26" ht="15.6" hidden="1">
-      <c r="A13" s="315"/>
-      <c r="B13" s="315"/>
-      <c r="C13" s="315"/>
-      <c r="D13" s="315"/>
-      <c r="E13" s="315"/>
-      <c r="F13" s="315"/>
-      <c r="G13" s="315"/>
-      <c r="H13" s="315"/>
+      <c r="A13" s="309"/>
+      <c r="B13" s="309"/>
+      <c r="C13" s="309"/>
+      <c r="D13" s="309"/>
+      <c r="E13" s="309"/>
+      <c r="F13" s="309"/>
+      <c r="G13" s="309"/>
+      <c r="H13" s="309"/>
       <c r="I13" s="133" t="s">
         <v>325</v>
       </c>
@@ -9065,7 +9171,7 @@
       <c r="L13" s="136">
         <v>0</v>
       </c>
-      <c r="M13" s="315"/>
+      <c r="M13" s="309"/>
       <c r="N13" s="126"/>
       <c r="O13" s="126"/>
       <c r="P13" s="126"/>
@@ -9081,14 +9187,14 @@
       <c r="Z13" s="126"/>
     </row>
     <row r="14" spans="1:26" ht="15.6" hidden="1">
-      <c r="A14" s="315"/>
-      <c r="B14" s="315"/>
-      <c r="C14" s="315"/>
-      <c r="D14" s="315"/>
-      <c r="E14" s="315"/>
-      <c r="F14" s="315"/>
-      <c r="G14" s="315"/>
-      <c r="H14" s="315"/>
+      <c r="A14" s="309"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
+      <c r="D14" s="309"/>
+      <c r="E14" s="309"/>
+      <c r="F14" s="309"/>
+      <c r="G14" s="309"/>
+      <c r="H14" s="309"/>
       <c r="I14" s="133" t="s">
         <v>326</v>
       </c>
@@ -9097,7 +9203,7 @@
       <c r="L14" s="136">
         <v>0</v>
       </c>
-      <c r="M14" s="315"/>
+      <c r="M14" s="309"/>
       <c r="N14" s="126"/>
       <c r="O14" s="126"/>
       <c r="P14" s="126"/>
@@ -9113,14 +9219,14 @@
       <c r="Z14" s="126"/>
     </row>
     <row r="15" spans="1:26" ht="15.6" hidden="1">
-      <c r="A15" s="315"/>
-      <c r="B15" s="315"/>
-      <c r="C15" s="315"/>
-      <c r="D15" s="315"/>
-      <c r="E15" s="315"/>
-      <c r="F15" s="315"/>
-      <c r="G15" s="315"/>
-      <c r="H15" s="315"/>
+      <c r="A15" s="309"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="309"/>
+      <c r="D15" s="309"/>
+      <c r="E15" s="309"/>
+      <c r="F15" s="309"/>
+      <c r="G15" s="309"/>
+      <c r="H15" s="309"/>
       <c r="I15" s="133" t="s">
         <v>327</v>
       </c>
@@ -9136,7 +9242,7 @@
         <f>SUM(L67:L78)</f>
         <v>3</v>
       </c>
-      <c r="M15" s="315"/>
+      <c r="M15" s="309"/>
       <c r="N15" s="126"/>
       <c r="O15" s="126"/>
       <c r="P15" s="126"/>
@@ -9152,14 +9258,14 @@
       <c r="Z15" s="126"/>
     </row>
     <row r="16" spans="1:26" ht="15.6" hidden="1">
-      <c r="A16" s="315"/>
-      <c r="B16" s="315"/>
-      <c r="C16" s="315"/>
-      <c r="D16" s="315"/>
-      <c r="E16" s="315"/>
-      <c r="F16" s="315"/>
-      <c r="G16" s="315"/>
-      <c r="H16" s="315"/>
+      <c r="A16" s="309"/>
+      <c r="B16" s="309"/>
+      <c r="C16" s="309"/>
+      <c r="D16" s="309"/>
+      <c r="E16" s="309"/>
+      <c r="F16" s="309"/>
+      <c r="G16" s="309"/>
+      <c r="H16" s="309"/>
       <c r="I16" s="133" t="s">
         <v>328</v>
       </c>
@@ -9175,7 +9281,7 @@
         <f>SUM(L25:L66)</f>
         <v>10</v>
       </c>
-      <c r="M16" s="315"/>
+      <c r="M16" s="309"/>
       <c r="N16" s="126"/>
       <c r="O16" s="126"/>
       <c r="P16" s="126"/>
@@ -9191,14 +9297,14 @@
       <c r="Z16" s="126"/>
     </row>
     <row r="17" spans="1:26" ht="15.6" hidden="1">
-      <c r="A17" s="315"/>
-      <c r="B17" s="315"/>
-      <c r="C17" s="315"/>
-      <c r="D17" s="315"/>
-      <c r="E17" s="315"/>
-      <c r="F17" s="315"/>
-      <c r="G17" s="315"/>
-      <c r="H17" s="315"/>
+      <c r="A17" s="309"/>
+      <c r="B17" s="309"/>
+      <c r="C17" s="309"/>
+      <c r="D17" s="309"/>
+      <c r="E17" s="309"/>
+      <c r="F17" s="309"/>
+      <c r="G17" s="309"/>
+      <c r="H17" s="309"/>
       <c r="I17" s="133" t="s">
         <v>329</v>
       </c>
@@ -9207,7 +9313,7 @@
       <c r="L17" s="136">
         <v>0</v>
       </c>
-      <c r="M17" s="315"/>
+      <c r="M17" s="309"/>
       <c r="N17" s="126"/>
       <c r="O17" s="126"/>
       <c r="P17" s="126"/>
@@ -9223,14 +9329,14 @@
       <c r="Z17" s="126"/>
     </row>
     <row r="18" spans="1:26" ht="15.6" hidden="1">
-      <c r="A18" s="315"/>
-      <c r="B18" s="315"/>
-      <c r="C18" s="315"/>
-      <c r="D18" s="315"/>
-      <c r="E18" s="315"/>
-      <c r="F18" s="315"/>
-      <c r="G18" s="315"/>
-      <c r="H18" s="315"/>
+      <c r="A18" s="309"/>
+      <c r="B18" s="309"/>
+      <c r="C18" s="309"/>
+      <c r="D18" s="309"/>
+      <c r="E18" s="309"/>
+      <c r="F18" s="309"/>
+      <c r="G18" s="309"/>
+      <c r="H18" s="309"/>
       <c r="I18" s="133" t="s">
         <v>330</v>
       </c>
@@ -9239,7 +9345,7 @@
       <c r="L18" s="136">
         <v>0</v>
       </c>
-      <c r="M18" s="315"/>
+      <c r="M18" s="309"/>
       <c r="N18" s="126"/>
       <c r="O18" s="126"/>
       <c r="P18" s="126"/>
@@ -9255,14 +9361,14 @@
       <c r="Z18" s="126"/>
     </row>
     <row r="19" spans="1:26" ht="15.6" hidden="1">
-      <c r="A19" s="315"/>
-      <c r="B19" s="315"/>
-      <c r="C19" s="315"/>
-      <c r="D19" s="315"/>
-      <c r="E19" s="315"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="315"/>
-      <c r="H19" s="315"/>
+      <c r="A19" s="309"/>
+      <c r="B19" s="309"/>
+      <c r="C19" s="309"/>
+      <c r="D19" s="309"/>
+      <c r="E19" s="309"/>
+      <c r="F19" s="309"/>
+      <c r="G19" s="309"/>
+      <c r="H19" s="309"/>
       <c r="I19" s="133" t="s">
         <v>331</v>
       </c>
@@ -9271,7 +9377,7 @@
       <c r="L19" s="136">
         <v>0</v>
       </c>
-      <c r="M19" s="315"/>
+      <c r="M19" s="309"/>
       <c r="N19" s="126"/>
       <c r="O19" s="126"/>
       <c r="P19" s="126"/>
@@ -9287,14 +9393,14 @@
       <c r="Z19" s="126"/>
     </row>
     <row r="20" spans="1:26" ht="15.6" hidden="1">
-      <c r="A20" s="315"/>
-      <c r="B20" s="315"/>
-      <c r="C20" s="315"/>
-      <c r="D20" s="315"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="315"/>
-      <c r="H20" s="315"/>
+      <c r="A20" s="309"/>
+      <c r="B20" s="309"/>
+      <c r="C20" s="309"/>
+      <c r="D20" s="309"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="309"/>
+      <c r="G20" s="309"/>
+      <c r="H20" s="309"/>
       <c r="I20" s="133" t="s">
         <v>332</v>
       </c>
@@ -9303,7 +9409,7 @@
       <c r="L20" s="136">
         <v>0</v>
       </c>
-      <c r="M20" s="315"/>
+      <c r="M20" s="309"/>
       <c r="N20" s="126"/>
       <c r="O20" s="126"/>
       <c r="P20" s="126"/>
@@ -9319,14 +9425,14 @@
       <c r="Z20" s="126"/>
     </row>
     <row r="21" spans="1:26" ht="15.6" hidden="1">
-      <c r="A21" s="315"/>
-      <c r="B21" s="315"/>
-      <c r="C21" s="315"/>
-      <c r="D21" s="315"/>
-      <c r="E21" s="315"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="315"/>
-      <c r="H21" s="315"/>
+      <c r="A21" s="309"/>
+      <c r="B21" s="309"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="309"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="309"/>
+      <c r="G21" s="309"/>
+      <c r="H21" s="309"/>
       <c r="I21" s="133" t="s">
         <v>333</v>
       </c>
@@ -9335,7 +9441,7 @@
       <c r="L21" s="136">
         <v>0</v>
       </c>
-      <c r="M21" s="315"/>
+      <c r="M21" s="309"/>
       <c r="N21" s="126"/>
       <c r="O21" s="126"/>
       <c r="P21" s="126"/>
@@ -9351,14 +9457,14 @@
       <c r="Z21" s="126"/>
     </row>
     <row r="22" spans="1:26" ht="15.6" hidden="1">
-      <c r="A22" s="315"/>
-      <c r="B22" s="315"/>
-      <c r="C22" s="315"/>
-      <c r="D22" s="315"/>
-      <c r="E22" s="315"/>
-      <c r="F22" s="315"/>
-      <c r="G22" s="315"/>
-      <c r="H22" s="315"/>
+      <c r="A22" s="309"/>
+      <c r="B22" s="309"/>
+      <c r="C22" s="309"/>
+      <c r="D22" s="309"/>
+      <c r="E22" s="309"/>
+      <c r="F22" s="309"/>
+      <c r="G22" s="309"/>
+      <c r="H22" s="309"/>
       <c r="I22" s="138" t="s">
         <v>334</v>
       </c>
@@ -9367,7 +9473,7 @@
       <c r="L22" s="136">
         <v>0</v>
       </c>
-      <c r="M22" s="315"/>
+      <c r="M22" s="309"/>
       <c r="N22" s="126"/>
       <c r="O22" s="126"/>
       <c r="P22" s="126"/>
@@ -9383,24 +9489,24 @@
       <c r="Z22" s="126"/>
     </row>
     <row r="23" spans="1:26" ht="42" hidden="1" customHeight="1">
-      <c r="A23" s="316"/>
-      <c r="B23" s="316"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="316"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="316"/>
-      <c r="G23" s="316"/>
-      <c r="H23" s="316"/>
-      <c r="I23" s="331" t="s">
+      <c r="A23" s="310"/>
+      <c r="B23" s="310"/>
+      <c r="C23" s="310"/>
+      <c r="D23" s="310"/>
+      <c r="E23" s="310"/>
+      <c r="F23" s="310"/>
+      <c r="G23" s="310"/>
+      <c r="H23" s="310"/>
+      <c r="I23" s="328" t="s">
         <v>335</v>
       </c>
-      <c r="J23" s="332"/>
-      <c r="K23" s="333"/>
+      <c r="J23" s="329"/>
+      <c r="K23" s="330"/>
       <c r="L23" s="139">
         <f>SUM(L6,L7,L12,L13,L14,L16,L17,L18,L19)*1.15</f>
         <v>11.5</v>
       </c>
-      <c r="M23" s="316"/>
+      <c r="M23" s="310"/>
       <c r="N23" s="126"/>
       <c r="O23" s="126"/>
       <c r="P23" s="126"/>
@@ -9470,29 +9576,29 @@
       <c r="Z24" s="126"/>
     </row>
     <row r="25" spans="1:26" ht="15.6">
-      <c r="A25" s="309" t="s">
+      <c r="A25" s="306" t="s">
         <v>338</v>
       </c>
-      <c r="B25" s="309" t="s">
+      <c r="B25" s="306" t="s">
         <v>339</v>
       </c>
-      <c r="C25" s="312" t="s">
+      <c r="C25" s="320" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="312"/>
-      <c r="E25" s="312"/>
-      <c r="F25" s="312"/>
-      <c r="G25" s="312"/>
-      <c r="H25" s="306" t="s">
+      <c r="D25" s="320"/>
+      <c r="E25" s="320"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="317" t="s">
         <v>351</v>
       </c>
       <c r="I25" s="143" t="s">
         <v>341</v>
       </c>
-      <c r="J25" s="310"/>
-      <c r="K25" s="310"/>
-      <c r="L25" s="310"/>
-      <c r="M25" s="306"/>
+      <c r="J25" s="307"/>
+      <c r="K25" s="307"/>
+      <c r="L25" s="307"/>
+      <c r="M25" s="317"/>
       <c r="N25" s="126"/>
       <c r="O25" s="126"/>
       <c r="P25" s="126"/>
@@ -9508,19 +9614,19 @@
       <c r="Z25" s="126"/>
     </row>
     <row r="26" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A26" s="310"/>
-      <c r="B26" s="315"/>
-      <c r="C26" s="315"/>
-      <c r="D26" s="315"/>
-      <c r="E26" s="315"/>
-      <c r="F26" s="315"/>
-      <c r="G26" s="315"/>
-      <c r="H26" s="315"/>
+      <c r="A26" s="307"/>
+      <c r="B26" s="309"/>
+      <c r="C26" s="309"/>
+      <c r="D26" s="309"/>
+      <c r="E26" s="309"/>
+      <c r="F26" s="309"/>
+      <c r="G26" s="309"/>
+      <c r="H26" s="309"/>
       <c r="I26" s="143"/>
-      <c r="J26" s="315"/>
-      <c r="K26" s="315"/>
-      <c r="L26" s="315"/>
-      <c r="M26" s="315"/>
+      <c r="J26" s="309"/>
+      <c r="K26" s="309"/>
+      <c r="L26" s="309"/>
+      <c r="M26" s="309"/>
       <c r="N26" s="126"/>
       <c r="O26" s="126"/>
       <c r="P26" s="126"/>
@@ -9536,19 +9642,19 @@
       <c r="Z26" s="126"/>
     </row>
     <row r="27" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A27" s="310"/>
-      <c r="B27" s="315"/>
-      <c r="C27" s="315"/>
-      <c r="D27" s="315"/>
-      <c r="E27" s="315"/>
-      <c r="F27" s="315"/>
-      <c r="G27" s="315"/>
-      <c r="H27" s="315"/>
+      <c r="A27" s="307"/>
+      <c r="B27" s="309"/>
+      <c r="C27" s="309"/>
+      <c r="D27" s="309"/>
+      <c r="E27" s="309"/>
+      <c r="F27" s="309"/>
+      <c r="G27" s="309"/>
+      <c r="H27" s="309"/>
       <c r="I27" s="143"/>
-      <c r="J27" s="315"/>
-      <c r="K27" s="315"/>
-      <c r="L27" s="315"/>
-      <c r="M27" s="315"/>
+      <c r="J27" s="309"/>
+      <c r="K27" s="309"/>
+      <c r="L27" s="309"/>
+      <c r="M27" s="309"/>
       <c r="N27" s="126"/>
       <c r="O27" s="126"/>
       <c r="P27" s="126"/>
@@ -9564,19 +9670,19 @@
       <c r="Z27" s="126"/>
     </row>
     <row r="28" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A28" s="310"/>
-      <c r="B28" s="315"/>
-      <c r="C28" s="315"/>
-      <c r="D28" s="315"/>
-      <c r="E28" s="315"/>
-      <c r="F28" s="315"/>
-      <c r="G28" s="315"/>
-      <c r="H28" s="315"/>
+      <c r="A28" s="307"/>
+      <c r="B28" s="309"/>
+      <c r="C28" s="309"/>
+      <c r="D28" s="309"/>
+      <c r="E28" s="309"/>
+      <c r="F28" s="309"/>
+      <c r="G28" s="309"/>
+      <c r="H28" s="309"/>
       <c r="I28" s="143"/>
-      <c r="J28" s="315"/>
-      <c r="K28" s="315"/>
-      <c r="L28" s="315"/>
-      <c r="M28" s="315"/>
+      <c r="J28" s="309"/>
+      <c r="K28" s="309"/>
+      <c r="L28" s="309"/>
+      <c r="M28" s="309"/>
       <c r="N28" s="126"/>
       <c r="O28" s="126"/>
       <c r="P28" s="126"/>
@@ -9592,19 +9698,19 @@
       <c r="Z28" s="126"/>
     </row>
     <row r="29" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A29" s="310"/>
-      <c r="B29" s="315"/>
-      <c r="C29" s="315"/>
-      <c r="D29" s="315"/>
-      <c r="E29" s="315"/>
-      <c r="F29" s="315"/>
-      <c r="G29" s="315"/>
-      <c r="H29" s="315"/>
+      <c r="A29" s="307"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="309"/>
+      <c r="D29" s="309"/>
+      <c r="E29" s="309"/>
+      <c r="F29" s="309"/>
+      <c r="G29" s="309"/>
+      <c r="H29" s="309"/>
       <c r="I29" s="143"/>
-      <c r="J29" s="315"/>
-      <c r="K29" s="315"/>
-      <c r="L29" s="315"/>
-      <c r="M29" s="315"/>
+      <c r="J29" s="309"/>
+      <c r="K29" s="309"/>
+      <c r="L29" s="309"/>
+      <c r="M29" s="309"/>
       <c r="N29" s="126"/>
       <c r="O29" s="126"/>
       <c r="P29" s="126"/>
@@ -9620,19 +9726,19 @@
       <c r="Z29" s="126"/>
     </row>
     <row r="30" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A30" s="310"/>
-      <c r="B30" s="316"/>
-      <c r="C30" s="316"/>
-      <c r="D30" s="316"/>
-      <c r="E30" s="316"/>
-      <c r="F30" s="316"/>
-      <c r="G30" s="316"/>
-      <c r="H30" s="316"/>
+      <c r="A30" s="307"/>
+      <c r="B30" s="310"/>
+      <c r="C30" s="310"/>
+      <c r="D30" s="310"/>
+      <c r="E30" s="310"/>
+      <c r="F30" s="310"/>
+      <c r="G30" s="310"/>
+      <c r="H30" s="310"/>
       <c r="I30" s="144"/>
-      <c r="J30" s="316"/>
-      <c r="K30" s="316"/>
-      <c r="L30" s="316"/>
-      <c r="M30" s="316"/>
+      <c r="J30" s="310"/>
+      <c r="K30" s="310"/>
+      <c r="L30" s="310"/>
+      <c r="M30" s="310"/>
       <c r="N30" s="126"/>
       <c r="O30" s="126"/>
       <c r="P30" s="126"/>
@@ -9648,35 +9754,35 @@
       <c r="Z30" s="126"/>
     </row>
     <row r="31" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A31" s="319" t="s">
+      <c r="A31" s="338" t="s">
         <v>466</v>
       </c>
-      <c r="B31" s="320" t="s">
+      <c r="B31" s="322" t="s">
         <v>343</v>
       </c>
-      <c r="C31" s="323" t="s">
+      <c r="C31" s="325" t="s">
         <v>350</v>
       </c>
-      <c r="D31" s="312"/>
-      <c r="E31" s="312"/>
-      <c r="F31" s="312"/>
-      <c r="G31" s="312"/>
-      <c r="H31" s="306" t="s">
+      <c r="D31" s="320"/>
+      <c r="E31" s="320"/>
+      <c r="F31" s="320"/>
+      <c r="G31" s="320"/>
+      <c r="H31" s="317" t="s">
         <v>406</v>
       </c>
       <c r="I31" s="133" t="s">
         <v>403</v>
       </c>
-      <c r="J31" s="309">
+      <c r="J31" s="306">
         <v>1</v>
       </c>
-      <c r="K31" s="309">
+      <c r="K31" s="306">
         <v>0</v>
       </c>
-      <c r="L31" s="309">
+      <c r="L31" s="306">
         <v>1</v>
       </c>
-      <c r="M31" s="306" t="s">
+      <c r="M31" s="317" t="s">
         <v>361</v>
       </c>
       <c r="N31" s="126"/>
@@ -9694,19 +9800,19 @@
       <c r="Z31" s="126"/>
     </row>
     <row r="32" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A32" s="319"/>
-      <c r="B32" s="321"/>
-      <c r="C32" s="324"/>
-      <c r="D32" s="313"/>
-      <c r="E32" s="313"/>
-      <c r="F32" s="313"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="307"/>
+      <c r="A32" s="338"/>
+      <c r="B32" s="323"/>
+      <c r="C32" s="326"/>
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="312"/>
+      <c r="G32" s="312"/>
+      <c r="H32" s="308"/>
       <c r="I32" s="133"/>
-      <c r="J32" s="310"/>
-      <c r="K32" s="310"/>
-      <c r="L32" s="310"/>
-      <c r="M32" s="307"/>
+      <c r="J32" s="307"/>
+      <c r="K32" s="307"/>
+      <c r="L32" s="307"/>
+      <c r="M32" s="308"/>
       <c r="N32" s="126"/>
       <c r="O32" s="126"/>
       <c r="P32" s="126"/>
@@ -9722,19 +9828,19 @@
       <c r="Z32" s="126"/>
     </row>
     <row r="33" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A33" s="319"/>
-      <c r="B33" s="321"/>
-      <c r="C33" s="324"/>
-      <c r="D33" s="313"/>
-      <c r="E33" s="313"/>
-      <c r="F33" s="313"/>
-      <c r="G33" s="313"/>
-      <c r="H33" s="307"/>
+      <c r="A33" s="338"/>
+      <c r="B33" s="323"/>
+      <c r="C33" s="326"/>
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="312"/>
+      <c r="G33" s="312"/>
+      <c r="H33" s="308"/>
       <c r="I33" s="133"/>
-      <c r="J33" s="310"/>
-      <c r="K33" s="310"/>
-      <c r="L33" s="310"/>
-      <c r="M33" s="307"/>
+      <c r="J33" s="307"/>
+      <c r="K33" s="307"/>
+      <c r="L33" s="307"/>
+      <c r="M33" s="308"/>
       <c r="N33" s="126"/>
       <c r="O33" s="126"/>
       <c r="P33" s="126"/>
@@ -9750,19 +9856,19 @@
       <c r="Z33" s="126"/>
     </row>
     <row r="34" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A34" s="319"/>
-      <c r="B34" s="321"/>
-      <c r="C34" s="324"/>
-      <c r="D34" s="313"/>
-      <c r="E34" s="313"/>
-      <c r="F34" s="313"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="307"/>
+      <c r="A34" s="338"/>
+      <c r="B34" s="323"/>
+      <c r="C34" s="326"/>
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="312"/>
+      <c r="G34" s="312"/>
+      <c r="H34" s="308"/>
       <c r="I34" s="133"/>
-      <c r="J34" s="310"/>
-      <c r="K34" s="310"/>
-      <c r="L34" s="310"/>
-      <c r="M34" s="307"/>
+      <c r="J34" s="307"/>
+      <c r="K34" s="307"/>
+      <c r="L34" s="307"/>
+      <c r="M34" s="308"/>
       <c r="N34" s="126"/>
       <c r="O34" s="126"/>
       <c r="P34" s="126"/>
@@ -9778,19 +9884,19 @@
       <c r="Z34" s="126"/>
     </row>
     <row r="35" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A35" s="319"/>
-      <c r="B35" s="321"/>
-      <c r="C35" s="324"/>
-      <c r="D35" s="313"/>
-      <c r="E35" s="313"/>
-      <c r="F35" s="313"/>
-      <c r="G35" s="313"/>
-      <c r="H35" s="307"/>
+      <c r="A35" s="338"/>
+      <c r="B35" s="323"/>
+      <c r="C35" s="326"/>
+      <c r="D35" s="312"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="312"/>
+      <c r="G35" s="312"/>
+      <c r="H35" s="308"/>
       <c r="I35" s="133"/>
-      <c r="J35" s="310"/>
-      <c r="K35" s="310"/>
-      <c r="L35" s="310"/>
-      <c r="M35" s="307"/>
+      <c r="J35" s="307"/>
+      <c r="K35" s="307"/>
+      <c r="L35" s="307"/>
+      <c r="M35" s="308"/>
       <c r="N35" s="126"/>
       <c r="O35" s="126"/>
       <c r="P35" s="126"/>
@@ -9806,19 +9912,19 @@
       <c r="Z35" s="126"/>
     </row>
     <row r="36" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A36" s="319"/>
-      <c r="B36" s="322"/>
-      <c r="C36" s="325"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="314"/>
-      <c r="F36" s="314"/>
-      <c r="G36" s="314"/>
-      <c r="H36" s="308"/>
+      <c r="A36" s="338"/>
+      <c r="B36" s="324"/>
+      <c r="C36" s="327"/>
+      <c r="D36" s="321"/>
+      <c r="E36" s="321"/>
+      <c r="F36" s="321"/>
+      <c r="G36" s="321"/>
+      <c r="H36" s="318"/>
       <c r="I36" s="146"/>
-      <c r="J36" s="311"/>
-      <c r="K36" s="311"/>
-      <c r="L36" s="311"/>
-      <c r="M36" s="308"/>
+      <c r="J36" s="319"/>
+      <c r="K36" s="319"/>
+      <c r="L36" s="319"/>
+      <c r="M36" s="318"/>
       <c r="N36" s="126"/>
       <c r="O36" s="126"/>
       <c r="P36" s="126"/>
@@ -9834,33 +9940,33 @@
       <c r="Z36" s="126"/>
     </row>
     <row r="37" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A37" s="319"/>
-      <c r="B37" s="320" t="s">
+      <c r="A37" s="338"/>
+      <c r="B37" s="322" t="s">
         <v>344</v>
       </c>
-      <c r="C37" s="323" t="s">
+      <c r="C37" s="325" t="s">
         <v>407</v>
       </c>
-      <c r="D37" s="312"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="312"/>
-      <c r="G37" s="312"/>
-      <c r="H37" s="306" t="s">
+      <c r="D37" s="320"/>
+      <c r="E37" s="320"/>
+      <c r="F37" s="320"/>
+      <c r="G37" s="320"/>
+      <c r="H37" s="317" t="s">
         <v>485</v>
       </c>
       <c r="I37" s="133" t="s">
         <v>359</v>
       </c>
-      <c r="J37" s="309">
+      <c r="J37" s="306">
         <v>1</v>
       </c>
-      <c r="K37" s="309">
+      <c r="K37" s="306">
         <v>1</v>
       </c>
-      <c r="L37" s="309">
+      <c r="L37" s="306">
         <v>1</v>
       </c>
-      <c r="M37" s="306" t="s">
+      <c r="M37" s="317" t="s">
         <v>384</v>
       </c>
       <c r="N37" s="126"/>
@@ -9878,19 +9984,19 @@
       <c r="Z37" s="126"/>
     </row>
     <row r="38" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A38" s="319"/>
-      <c r="B38" s="321"/>
-      <c r="C38" s="324"/>
-      <c r="D38" s="313"/>
-      <c r="E38" s="313"/>
-      <c r="F38" s="313"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="307"/>
+      <c r="A38" s="338"/>
+      <c r="B38" s="323"/>
+      <c r="C38" s="326"/>
+      <c r="D38" s="312"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="312"/>
+      <c r="G38" s="312"/>
+      <c r="H38" s="308"/>
       <c r="I38" s="133"/>
-      <c r="J38" s="310"/>
-      <c r="K38" s="310"/>
-      <c r="L38" s="310"/>
-      <c r="M38" s="307"/>
+      <c r="J38" s="307"/>
+      <c r="K38" s="307"/>
+      <c r="L38" s="307"/>
+      <c r="M38" s="308"/>
       <c r="N38" s="126"/>
       <c r="O38" s="126"/>
       <c r="P38" s="126"/>
@@ -9906,19 +10012,19 @@
       <c r="Z38" s="126"/>
     </row>
     <row r="39" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A39" s="319"/>
-      <c r="B39" s="321"/>
-      <c r="C39" s="324"/>
-      <c r="D39" s="313"/>
-      <c r="E39" s="313"/>
-      <c r="F39" s="313"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="307"/>
+      <c r="A39" s="338"/>
+      <c r="B39" s="323"/>
+      <c r="C39" s="326"/>
+      <c r="D39" s="312"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="312"/>
+      <c r="G39" s="312"/>
+      <c r="H39" s="308"/>
       <c r="I39" s="147"/>
-      <c r="J39" s="310"/>
-      <c r="K39" s="310"/>
-      <c r="L39" s="310"/>
-      <c r="M39" s="307"/>
+      <c r="J39" s="307"/>
+      <c r="K39" s="307"/>
+      <c r="L39" s="307"/>
+      <c r="M39" s="308"/>
       <c r="N39" s="126"/>
       <c r="O39" s="126"/>
       <c r="P39" s="126"/>
@@ -9934,19 +10040,19 @@
       <c r="Z39" s="126"/>
     </row>
     <row r="40" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A40" s="319"/>
-      <c r="B40" s="321"/>
-      <c r="C40" s="324"/>
-      <c r="D40" s="313"/>
-      <c r="E40" s="313"/>
-      <c r="F40" s="313"/>
-      <c r="G40" s="313"/>
-      <c r="H40" s="307"/>
+      <c r="A40" s="338"/>
+      <c r="B40" s="323"/>
+      <c r="C40" s="326"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="312"/>
+      <c r="G40" s="312"/>
+      <c r="H40" s="308"/>
       <c r="I40" s="133"/>
-      <c r="J40" s="310"/>
-      <c r="K40" s="310"/>
-      <c r="L40" s="310"/>
-      <c r="M40" s="307"/>
+      <c r="J40" s="307"/>
+      <c r="K40" s="307"/>
+      <c r="L40" s="307"/>
+      <c r="M40" s="308"/>
       <c r="N40" s="126"/>
       <c r="O40" s="126"/>
       <c r="P40" s="126"/>
@@ -9962,19 +10068,19 @@
       <c r="Z40" s="126"/>
     </row>
     <row r="41" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A41" s="319"/>
-      <c r="B41" s="321"/>
-      <c r="C41" s="324"/>
-      <c r="D41" s="313"/>
-      <c r="E41" s="313"/>
-      <c r="F41" s="313"/>
-      <c r="G41" s="313"/>
-      <c r="H41" s="307"/>
+      <c r="A41" s="338"/>
+      <c r="B41" s="323"/>
+      <c r="C41" s="326"/>
+      <c r="D41" s="312"/>
+      <c r="E41" s="312"/>
+      <c r="F41" s="312"/>
+      <c r="G41" s="312"/>
+      <c r="H41" s="308"/>
       <c r="I41" s="133"/>
-      <c r="J41" s="310"/>
-      <c r="K41" s="310"/>
-      <c r="L41" s="310"/>
-      <c r="M41" s="307"/>
+      <c r="J41" s="307"/>
+      <c r="K41" s="307"/>
+      <c r="L41" s="307"/>
+      <c r="M41" s="308"/>
       <c r="N41" s="126"/>
       <c r="O41" s="126"/>
       <c r="P41" s="126"/>
@@ -9990,19 +10096,19 @@
       <c r="Z41" s="126"/>
     </row>
     <row r="42" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A42" s="319"/>
-      <c r="B42" s="322"/>
-      <c r="C42" s="325"/>
-      <c r="D42" s="314"/>
-      <c r="E42" s="314"/>
-      <c r="F42" s="314"/>
-      <c r="G42" s="314"/>
-      <c r="H42" s="308"/>
+      <c r="A42" s="338"/>
+      <c r="B42" s="324"/>
+      <c r="C42" s="327"/>
+      <c r="D42" s="321"/>
+      <c r="E42" s="321"/>
+      <c r="F42" s="321"/>
+      <c r="G42" s="321"/>
+      <c r="H42" s="318"/>
       <c r="I42" s="144"/>
-      <c r="J42" s="311"/>
-      <c r="K42" s="311"/>
-      <c r="L42" s="311"/>
-      <c r="M42" s="308"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="319"/>
+      <c r="L42" s="319"/>
+      <c r="M42" s="318"/>
       <c r="N42" s="126"/>
       <c r="O42" s="126"/>
       <c r="P42" s="126"/>
@@ -10018,33 +10124,33 @@
       <c r="Z42" s="126"/>
     </row>
     <row r="43" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A43" s="319"/>
-      <c r="B43" s="320" t="s">
+      <c r="A43" s="338"/>
+      <c r="B43" s="322" t="s">
         <v>345</v>
       </c>
-      <c r="C43" s="324" t="s">
+      <c r="C43" s="326" t="s">
         <v>291</v>
       </c>
-      <c r="D43" s="312"/>
-      <c r="E43" s="312"/>
-      <c r="F43" s="312"/>
-      <c r="G43" s="312"/>
-      <c r="H43" s="306" t="s">
+      <c r="D43" s="320"/>
+      <c r="E43" s="320"/>
+      <c r="F43" s="320"/>
+      <c r="G43" s="320"/>
+      <c r="H43" s="317" t="s">
         <v>402</v>
       </c>
       <c r="I43" s="133" t="s">
         <v>356</v>
       </c>
-      <c r="J43" s="309">
+      <c r="J43" s="306">
         <v>1</v>
       </c>
-      <c r="K43" s="309">
+      <c r="K43" s="306">
         <v>5</v>
       </c>
-      <c r="L43" s="309">
+      <c r="L43" s="306">
         <v>3</v>
       </c>
-      <c r="M43" s="306" t="s">
+      <c r="M43" s="317" t="s">
         <v>467</v>
       </c>
       <c r="N43" s="126"/>
@@ -10062,21 +10168,21 @@
       <c r="Z43" s="126"/>
     </row>
     <row r="44" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A44" s="319"/>
-      <c r="B44" s="321"/>
-      <c r="C44" s="315"/>
-      <c r="D44" s="315"/>
-      <c r="E44" s="315"/>
-      <c r="F44" s="315"/>
-      <c r="G44" s="315"/>
-      <c r="H44" s="315"/>
+      <c r="A44" s="338"/>
+      <c r="B44" s="323"/>
+      <c r="C44" s="309"/>
+      <c r="D44" s="309"/>
+      <c r="E44" s="309"/>
+      <c r="F44" s="309"/>
+      <c r="G44" s="309"/>
+      <c r="H44" s="309"/>
       <c r="I44" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="J44" s="310"/>
-      <c r="K44" s="310"/>
-      <c r="L44" s="310"/>
-      <c r="M44" s="307"/>
+      <c r="J44" s="307"/>
+      <c r="K44" s="307"/>
+      <c r="L44" s="307"/>
+      <c r="M44" s="308"/>
       <c r="N44" s="126"/>
       <c r="O44" s="126"/>
       <c r="P44" s="126"/>
@@ -10092,21 +10198,21 @@
       <c r="Z44" s="126"/>
     </row>
     <row r="45" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A45" s="319"/>
-      <c r="B45" s="321"/>
-      <c r="C45" s="315"/>
-      <c r="D45" s="315"/>
-      <c r="E45" s="315"/>
-      <c r="F45" s="315"/>
-      <c r="G45" s="315"/>
-      <c r="H45" s="315"/>
+      <c r="A45" s="338"/>
+      <c r="B45" s="323"/>
+      <c r="C45" s="309"/>
+      <c r="D45" s="309"/>
+      <c r="E45" s="309"/>
+      <c r="F45" s="309"/>
+      <c r="G45" s="309"/>
+      <c r="H45" s="309"/>
       <c r="I45" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="J45" s="310"/>
-      <c r="K45" s="310"/>
-      <c r="L45" s="310"/>
-      <c r="M45" s="307"/>
+      <c r="J45" s="307"/>
+      <c r="K45" s="307"/>
+      <c r="L45" s="307"/>
+      <c r="M45" s="308"/>
       <c r="N45" s="126"/>
       <c r="O45" s="126"/>
       <c r="P45" s="126"/>
@@ -10122,21 +10228,21 @@
       <c r="Z45" s="126"/>
     </row>
     <row r="46" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A46" s="319"/>
-      <c r="B46" s="321"/>
-      <c r="C46" s="315"/>
-      <c r="D46" s="315"/>
-      <c r="E46" s="315"/>
-      <c r="F46" s="315"/>
-      <c r="G46" s="315"/>
-      <c r="H46" s="315"/>
+      <c r="A46" s="338"/>
+      <c r="B46" s="323"/>
+      <c r="C46" s="309"/>
+      <c r="D46" s="309"/>
+      <c r="E46" s="309"/>
+      <c r="F46" s="309"/>
+      <c r="G46" s="309"/>
+      <c r="H46" s="309"/>
       <c r="I46" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="J46" s="310"/>
-      <c r="K46" s="310"/>
-      <c r="L46" s="310"/>
-      <c r="M46" s="307"/>
+      <c r="J46" s="307"/>
+      <c r="K46" s="307"/>
+      <c r="L46" s="307"/>
+      <c r="M46" s="308"/>
       <c r="N46" s="126"/>
       <c r="O46" s="126"/>
       <c r="P46" s="126"/>
@@ -10152,21 +10258,21 @@
       <c r="Z46" s="126"/>
     </row>
     <row r="47" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A47" s="319"/>
-      <c r="B47" s="321"/>
-      <c r="C47" s="315"/>
-      <c r="D47" s="315"/>
-      <c r="E47" s="315"/>
-      <c r="F47" s="315"/>
-      <c r="G47" s="315"/>
-      <c r="H47" s="315"/>
+      <c r="A47" s="338"/>
+      <c r="B47" s="323"/>
+      <c r="C47" s="309"/>
+      <c r="D47" s="309"/>
+      <c r="E47" s="309"/>
+      <c r="F47" s="309"/>
+      <c r="G47" s="309"/>
+      <c r="H47" s="309"/>
       <c r="I47" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="J47" s="310"/>
-      <c r="K47" s="310"/>
-      <c r="L47" s="310"/>
-      <c r="M47" s="307"/>
+      <c r="J47" s="307"/>
+      <c r="K47" s="307"/>
+      <c r="L47" s="307"/>
+      <c r="M47" s="308"/>
       <c r="N47" s="126"/>
       <c r="O47" s="126"/>
       <c r="P47" s="126"/>
@@ -10182,19 +10288,19 @@
       <c r="Z47" s="126"/>
     </row>
     <row r="48" spans="1:26" s="165" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A48" s="319"/>
-      <c r="B48" s="322"/>
-      <c r="C48" s="316"/>
-      <c r="D48" s="316"/>
-      <c r="E48" s="316"/>
-      <c r="F48" s="316"/>
-      <c r="G48" s="316"/>
-      <c r="H48" s="316"/>
+      <c r="A48" s="338"/>
+      <c r="B48" s="324"/>
+      <c r="C48" s="310"/>
+      <c r="D48" s="310"/>
+      <c r="E48" s="310"/>
+      <c r="F48" s="310"/>
+      <c r="G48" s="310"/>
+      <c r="H48" s="310"/>
       <c r="I48" s="144"/>
-      <c r="J48" s="311"/>
-      <c r="K48" s="311"/>
-      <c r="L48" s="311"/>
-      <c r="M48" s="308"/>
+      <c r="J48" s="319"/>
+      <c r="K48" s="319"/>
+      <c r="L48" s="319"/>
+      <c r="M48" s="318"/>
       <c r="N48" s="126"/>
       <c r="O48" s="126"/>
       <c r="P48" s="126"/>
@@ -10210,35 +10316,35 @@
       <c r="Z48" s="126"/>
     </row>
     <row r="49" spans="1:26" ht="15" customHeight="1">
-      <c r="A49" s="319" t="s">
+      <c r="A49" s="338" t="s">
         <v>458</v>
       </c>
-      <c r="B49" s="320" t="s">
+      <c r="B49" s="322" t="s">
         <v>343</v>
       </c>
-      <c r="C49" s="323" t="s">
+      <c r="C49" s="325" t="s">
         <v>350</v>
       </c>
-      <c r="D49" s="312"/>
-      <c r="E49" s="312"/>
-      <c r="F49" s="312"/>
-      <c r="G49" s="312"/>
-      <c r="H49" s="306" t="s">
+      <c r="D49" s="320"/>
+      <c r="E49" s="320"/>
+      <c r="F49" s="320"/>
+      <c r="G49" s="320"/>
+      <c r="H49" s="317" t="s">
         <v>406</v>
       </c>
       <c r="I49" s="133" t="s">
         <v>403</v>
       </c>
-      <c r="J49" s="309">
+      <c r="J49" s="306">
         <v>1</v>
       </c>
-      <c r="K49" s="309">
+      <c r="K49" s="306">
         <v>0</v>
       </c>
-      <c r="L49" s="309">
+      <c r="L49" s="306">
         <v>1</v>
       </c>
-      <c r="M49" s="306" t="s">
+      <c r="M49" s="317" t="s">
         <v>461</v>
       </c>
       <c r="N49" s="126"/>
@@ -10256,21 +10362,21 @@
       <c r="Z49" s="126"/>
     </row>
     <row r="50" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A50" s="319"/>
-      <c r="B50" s="321"/>
-      <c r="C50" s="324"/>
-      <c r="D50" s="313"/>
-      <c r="E50" s="313"/>
-      <c r="F50" s="313"/>
-      <c r="G50" s="313"/>
-      <c r="H50" s="307"/>
+      <c r="A50" s="338"/>
+      <c r="B50" s="323"/>
+      <c r="C50" s="326"/>
+      <c r="D50" s="312"/>
+      <c r="E50" s="312"/>
+      <c r="F50" s="312"/>
+      <c r="G50" s="312"/>
+      <c r="H50" s="308"/>
       <c r="I50" s="133" t="s">
         <v>460</v>
       </c>
-      <c r="J50" s="310"/>
-      <c r="K50" s="310"/>
-      <c r="L50" s="310"/>
-      <c r="M50" s="307"/>
+      <c r="J50" s="307"/>
+      <c r="K50" s="307"/>
+      <c r="L50" s="307"/>
+      <c r="M50" s="308"/>
       <c r="N50" s="126"/>
       <c r="O50" s="126"/>
       <c r="P50" s="126"/>
@@ -10286,19 +10392,19 @@
       <c r="Z50" s="126"/>
     </row>
     <row r="51" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A51" s="319"/>
-      <c r="B51" s="321"/>
-      <c r="C51" s="324"/>
-      <c r="D51" s="313"/>
-      <c r="E51" s="313"/>
-      <c r="F51" s="313"/>
-      <c r="G51" s="313"/>
-      <c r="H51" s="307"/>
+      <c r="A51" s="338"/>
+      <c r="B51" s="323"/>
+      <c r="C51" s="326"/>
+      <c r="D51" s="312"/>
+      <c r="E51" s="312"/>
+      <c r="F51" s="312"/>
+      <c r="G51" s="312"/>
+      <c r="H51" s="308"/>
       <c r="I51" s="133"/>
-      <c r="J51" s="310"/>
-      <c r="K51" s="310"/>
-      <c r="L51" s="310"/>
-      <c r="M51" s="307"/>
+      <c r="J51" s="307"/>
+      <c r="K51" s="307"/>
+      <c r="L51" s="307"/>
+      <c r="M51" s="308"/>
       <c r="N51" s="126"/>
       <c r="O51" s="126"/>
       <c r="P51" s="126"/>
@@ -10314,19 +10420,19 @@
       <c r="Z51" s="126"/>
     </row>
     <row r="52" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A52" s="319"/>
-      <c r="B52" s="321"/>
-      <c r="C52" s="324"/>
-      <c r="D52" s="313"/>
-      <c r="E52" s="313"/>
-      <c r="F52" s="313"/>
-      <c r="G52" s="313"/>
-      <c r="H52" s="307"/>
+      <c r="A52" s="338"/>
+      <c r="B52" s="323"/>
+      <c r="C52" s="326"/>
+      <c r="D52" s="312"/>
+      <c r="E52" s="312"/>
+      <c r="F52" s="312"/>
+      <c r="G52" s="312"/>
+      <c r="H52" s="308"/>
       <c r="I52" s="133"/>
-      <c r="J52" s="310"/>
-      <c r="K52" s="310"/>
-      <c r="L52" s="310"/>
-      <c r="M52" s="307"/>
+      <c r="J52" s="307"/>
+      <c r="K52" s="307"/>
+      <c r="L52" s="307"/>
+      <c r="M52" s="308"/>
       <c r="N52" s="126"/>
       <c r="O52" s="126"/>
       <c r="P52" s="126"/>
@@ -10342,19 +10448,19 @@
       <c r="Z52" s="126"/>
     </row>
     <row r="53" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A53" s="319"/>
-      <c r="B53" s="321"/>
-      <c r="C53" s="324"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="313"/>
-      <c r="F53" s="313"/>
-      <c r="G53" s="313"/>
-      <c r="H53" s="307"/>
+      <c r="A53" s="338"/>
+      <c r="B53" s="323"/>
+      <c r="C53" s="326"/>
+      <c r="D53" s="312"/>
+      <c r="E53" s="312"/>
+      <c r="F53" s="312"/>
+      <c r="G53" s="312"/>
+      <c r="H53" s="308"/>
       <c r="I53" s="133"/>
-      <c r="J53" s="310"/>
-      <c r="K53" s="310"/>
-      <c r="L53" s="310"/>
-      <c r="M53" s="307"/>
+      <c r="J53" s="307"/>
+      <c r="K53" s="307"/>
+      <c r="L53" s="307"/>
+      <c r="M53" s="308"/>
       <c r="N53" s="126"/>
       <c r="O53" s="126"/>
       <c r="P53" s="126"/>
@@ -10370,19 +10476,19 @@
       <c r="Z53" s="126"/>
     </row>
     <row r="54" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A54" s="319"/>
-      <c r="B54" s="322"/>
-      <c r="C54" s="325"/>
-      <c r="D54" s="314"/>
-      <c r="E54" s="314"/>
-      <c r="F54" s="314"/>
-      <c r="G54" s="314"/>
-      <c r="H54" s="308"/>
+      <c r="A54" s="338"/>
+      <c r="B54" s="324"/>
+      <c r="C54" s="327"/>
+      <c r="D54" s="321"/>
+      <c r="E54" s="321"/>
+      <c r="F54" s="321"/>
+      <c r="G54" s="321"/>
+      <c r="H54" s="318"/>
       <c r="I54" s="146"/>
-      <c r="J54" s="311"/>
-      <c r="K54" s="311"/>
-      <c r="L54" s="311"/>
-      <c r="M54" s="308"/>
+      <c r="J54" s="319"/>
+      <c r="K54" s="319"/>
+      <c r="L54" s="319"/>
+      <c r="M54" s="318"/>
       <c r="N54" s="126"/>
       <c r="O54" s="126"/>
       <c r="P54" s="126"/>
@@ -10398,33 +10504,33 @@
       <c r="Z54" s="126"/>
     </row>
     <row r="55" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A55" s="319"/>
-      <c r="B55" s="320" t="s">
+      <c r="A55" s="338"/>
+      <c r="B55" s="322" t="s">
         <v>344</v>
       </c>
-      <c r="C55" s="323" t="s">
+      <c r="C55" s="325" t="s">
         <v>407</v>
       </c>
-      <c r="D55" s="312"/>
-      <c r="E55" s="312"/>
-      <c r="F55" s="312"/>
-      <c r="G55" s="312"/>
-      <c r="H55" s="306" t="s">
+      <c r="D55" s="320"/>
+      <c r="E55" s="320"/>
+      <c r="F55" s="320"/>
+      <c r="G55" s="320"/>
+      <c r="H55" s="317" t="s">
         <v>485</v>
       </c>
       <c r="I55" s="133" t="s">
         <v>359</v>
       </c>
-      <c r="J55" s="309">
+      <c r="J55" s="306">
         <v>1</v>
       </c>
-      <c r="K55" s="309">
+      <c r="K55" s="306">
         <v>1</v>
       </c>
-      <c r="L55" s="309">
+      <c r="L55" s="306">
         <v>1</v>
       </c>
-      <c r="M55" s="306" t="s">
+      <c r="M55" s="317" t="s">
         <v>464</v>
       </c>
       <c r="N55" s="126"/>
@@ -10442,21 +10548,21 @@
       <c r="Z55" s="126"/>
     </row>
     <row r="56" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A56" s="319"/>
-      <c r="B56" s="321"/>
-      <c r="C56" s="324"/>
-      <c r="D56" s="313"/>
-      <c r="E56" s="313"/>
-      <c r="F56" s="313"/>
-      <c r="G56" s="313"/>
-      <c r="H56" s="307"/>
+      <c r="A56" s="338"/>
+      <c r="B56" s="323"/>
+      <c r="C56" s="326"/>
+      <c r="D56" s="312"/>
+      <c r="E56" s="312"/>
+      <c r="F56" s="312"/>
+      <c r="G56" s="312"/>
+      <c r="H56" s="308"/>
       <c r="I56" s="133" t="s">
         <v>462</v>
       </c>
-      <c r="J56" s="310"/>
-      <c r="K56" s="310"/>
-      <c r="L56" s="310"/>
-      <c r="M56" s="307"/>
+      <c r="J56" s="307"/>
+      <c r="K56" s="307"/>
+      <c r="L56" s="307"/>
+      <c r="M56" s="308"/>
       <c r="N56" s="126"/>
       <c r="O56" s="126"/>
       <c r="P56" s="126"/>
@@ -10472,21 +10578,21 @@
       <c r="Z56" s="126"/>
     </row>
     <row r="57" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A57" s="319"/>
-      <c r="B57" s="321"/>
-      <c r="C57" s="324"/>
-      <c r="D57" s="313"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
-      <c r="G57" s="313"/>
-      <c r="H57" s="307"/>
+      <c r="A57" s="338"/>
+      <c r="B57" s="323"/>
+      <c r="C57" s="326"/>
+      <c r="D57" s="312"/>
+      <c r="E57" s="312"/>
+      <c r="F57" s="312"/>
+      <c r="G57" s="312"/>
+      <c r="H57" s="308"/>
       <c r="I57" s="147" t="s">
         <v>463</v>
       </c>
-      <c r="J57" s="310"/>
-      <c r="K57" s="310"/>
-      <c r="L57" s="310"/>
-      <c r="M57" s="307"/>
+      <c r="J57" s="307"/>
+      <c r="K57" s="307"/>
+      <c r="L57" s="307"/>
+      <c r="M57" s="308"/>
       <c r="N57" s="126"/>
       <c r="O57" s="126"/>
       <c r="P57" s="126"/>
@@ -10502,19 +10608,19 @@
       <c r="Z57" s="126"/>
     </row>
     <row r="58" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A58" s="319"/>
-      <c r="B58" s="321"/>
-      <c r="C58" s="324"/>
-      <c r="D58" s="313"/>
-      <c r="E58" s="313"/>
-      <c r="F58" s="313"/>
-      <c r="G58" s="313"/>
-      <c r="H58" s="307"/>
+      <c r="A58" s="338"/>
+      <c r="B58" s="323"/>
+      <c r="C58" s="326"/>
+      <c r="D58" s="312"/>
+      <c r="E58" s="312"/>
+      <c r="F58" s="312"/>
+      <c r="G58" s="312"/>
+      <c r="H58" s="308"/>
       <c r="I58" s="133"/>
-      <c r="J58" s="310"/>
-      <c r="K58" s="310"/>
-      <c r="L58" s="310"/>
-      <c r="M58" s="307"/>
+      <c r="J58" s="307"/>
+      <c r="K58" s="307"/>
+      <c r="L58" s="307"/>
+      <c r="M58" s="308"/>
       <c r="N58" s="126"/>
       <c r="O58" s="126"/>
       <c r="P58" s="126"/>
@@ -10530,19 +10636,19 @@
       <c r="Z58" s="126"/>
     </row>
     <row r="59" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A59" s="319"/>
-      <c r="B59" s="321"/>
-      <c r="C59" s="324"/>
-      <c r="D59" s="313"/>
-      <c r="E59" s="313"/>
-      <c r="F59" s="313"/>
-      <c r="G59" s="313"/>
-      <c r="H59" s="307"/>
+      <c r="A59" s="338"/>
+      <c r="B59" s="323"/>
+      <c r="C59" s="326"/>
+      <c r="D59" s="312"/>
+      <c r="E59" s="312"/>
+      <c r="F59" s="312"/>
+      <c r="G59" s="312"/>
+      <c r="H59" s="308"/>
       <c r="I59" s="133"/>
-      <c r="J59" s="310"/>
-      <c r="K59" s="310"/>
-      <c r="L59" s="310"/>
-      <c r="M59" s="307"/>
+      <c r="J59" s="307"/>
+      <c r="K59" s="307"/>
+      <c r="L59" s="307"/>
+      <c r="M59" s="308"/>
       <c r="N59" s="126"/>
       <c r="O59" s="126"/>
       <c r="P59" s="126"/>
@@ -10558,19 +10664,19 @@
       <c r="Z59" s="126"/>
     </row>
     <row r="60" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A60" s="319"/>
-      <c r="B60" s="322"/>
-      <c r="C60" s="325"/>
-      <c r="D60" s="314"/>
-      <c r="E60" s="314"/>
-      <c r="F60" s="314"/>
-      <c r="G60" s="314"/>
-      <c r="H60" s="308"/>
+      <c r="A60" s="338"/>
+      <c r="B60" s="324"/>
+      <c r="C60" s="327"/>
+      <c r="D60" s="321"/>
+      <c r="E60" s="321"/>
+      <c r="F60" s="321"/>
+      <c r="G60" s="321"/>
+      <c r="H60" s="318"/>
       <c r="I60" s="144"/>
-      <c r="J60" s="311"/>
-      <c r="K60" s="311"/>
-      <c r="L60" s="311"/>
-      <c r="M60" s="308"/>
+      <c r="J60" s="319"/>
+      <c r="K60" s="319"/>
+      <c r="L60" s="319"/>
+      <c r="M60" s="318"/>
       <c r="N60" s="126"/>
       <c r="O60" s="126"/>
       <c r="P60" s="126"/>
@@ -10586,33 +10692,33 @@
       <c r="Z60" s="126"/>
     </row>
     <row r="61" spans="1:26" ht="15.6" customHeight="1">
-      <c r="A61" s="319"/>
-      <c r="B61" s="320" t="s">
+      <c r="A61" s="338"/>
+      <c r="B61" s="322" t="s">
         <v>345</v>
       </c>
-      <c r="C61" s="324" t="s">
+      <c r="C61" s="326" t="s">
         <v>291</v>
       </c>
-      <c r="D61" s="312"/>
-      <c r="E61" s="312"/>
-      <c r="F61" s="312"/>
-      <c r="G61" s="312"/>
-      <c r="H61" s="306" t="s">
+      <c r="D61" s="320"/>
+      <c r="E61" s="320"/>
+      <c r="F61" s="320"/>
+      <c r="G61" s="320"/>
+      <c r="H61" s="317" t="s">
         <v>402</v>
       </c>
       <c r="I61" s="133" t="s">
         <v>356</v>
       </c>
-      <c r="J61" s="309">
+      <c r="J61" s="306">
         <v>1</v>
       </c>
-      <c r="K61" s="309">
+      <c r="K61" s="306">
         <v>5</v>
       </c>
-      <c r="L61" s="309">
+      <c r="L61" s="306">
         <v>3</v>
       </c>
-      <c r="M61" s="306" t="s">
+      <c r="M61" s="317" t="s">
         <v>465</v>
       </c>
       <c r="N61" s="126"/>
@@ -10630,21 +10736,21 @@
       <c r="Z61" s="126"/>
     </row>
     <row r="62" spans="1:26" ht="15" customHeight="1">
-      <c r="A62" s="319"/>
-      <c r="B62" s="321"/>
-      <c r="C62" s="315"/>
-      <c r="D62" s="315"/>
-      <c r="E62" s="315"/>
-      <c r="F62" s="315"/>
-      <c r="G62" s="315"/>
-      <c r="H62" s="315"/>
+      <c r="A62" s="338"/>
+      <c r="B62" s="323"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="309"/>
+      <c r="E62" s="309"/>
+      <c r="F62" s="309"/>
+      <c r="G62" s="309"/>
+      <c r="H62" s="309"/>
       <c r="I62" s="147" t="s">
         <v>352</v>
       </c>
-      <c r="J62" s="310"/>
-      <c r="K62" s="310"/>
-      <c r="L62" s="310"/>
-      <c r="M62" s="307"/>
+      <c r="J62" s="307"/>
+      <c r="K62" s="307"/>
+      <c r="L62" s="307"/>
+      <c r="M62" s="308"/>
       <c r="N62" s="126"/>
       <c r="O62" s="126"/>
       <c r="P62" s="126"/>
@@ -10660,21 +10766,21 @@
       <c r="Z62" s="126"/>
     </row>
     <row r="63" spans="1:26" ht="15" customHeight="1">
-      <c r="A63" s="319"/>
-      <c r="B63" s="321"/>
-      <c r="C63" s="315"/>
-      <c r="D63" s="315"/>
-      <c r="E63" s="315"/>
-      <c r="F63" s="315"/>
-      <c r="G63" s="315"/>
-      <c r="H63" s="315"/>
+      <c r="A63" s="338"/>
+      <c r="B63" s="323"/>
+      <c r="C63" s="309"/>
+      <c r="D63" s="309"/>
+      <c r="E63" s="309"/>
+      <c r="F63" s="309"/>
+      <c r="G63" s="309"/>
+      <c r="H63" s="309"/>
       <c r="I63" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="J63" s="310"/>
-      <c r="K63" s="310"/>
-      <c r="L63" s="310"/>
-      <c r="M63" s="307"/>
+      <c r="J63" s="307"/>
+      <c r="K63" s="307"/>
+      <c r="L63" s="307"/>
+      <c r="M63" s="308"/>
       <c r="N63" s="126"/>
       <c r="O63" s="126"/>
       <c r="P63" s="126"/>
@@ -10690,21 +10796,21 @@
       <c r="Z63" s="126"/>
     </row>
     <row r="64" spans="1:26" ht="15" customHeight="1">
-      <c r="A64" s="319"/>
-      <c r="B64" s="321"/>
-      <c r="C64" s="315"/>
-      <c r="D64" s="315"/>
-      <c r="E64" s="315"/>
-      <c r="F64" s="315"/>
-      <c r="G64" s="315"/>
-      <c r="H64" s="315"/>
+      <c r="A64" s="338"/>
+      <c r="B64" s="323"/>
+      <c r="C64" s="309"/>
+      <c r="D64" s="309"/>
+      <c r="E64" s="309"/>
+      <c r="F64" s="309"/>
+      <c r="G64" s="309"/>
+      <c r="H64" s="309"/>
       <c r="I64" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="J64" s="310"/>
-      <c r="K64" s="310"/>
-      <c r="L64" s="310"/>
-      <c r="M64" s="307"/>
+      <c r="J64" s="307"/>
+      <c r="K64" s="307"/>
+      <c r="L64" s="307"/>
+      <c r="M64" s="308"/>
       <c r="N64" s="126"/>
       <c r="O64" s="126"/>
       <c r="P64" s="126"/>
@@ -10720,21 +10826,21 @@
       <c r="Z64" s="126"/>
     </row>
     <row r="65" spans="1:26" ht="15" customHeight="1">
-      <c r="A65" s="319"/>
-      <c r="B65" s="321"/>
-      <c r="C65" s="315"/>
-      <c r="D65" s="315"/>
-      <c r="E65" s="315"/>
-      <c r="F65" s="315"/>
-      <c r="G65" s="315"/>
-      <c r="H65" s="315"/>
+      <c r="A65" s="338"/>
+      <c r="B65" s="323"/>
+      <c r="C65" s="309"/>
+      <c r="D65" s="309"/>
+      <c r="E65" s="309"/>
+      <c r="F65" s="309"/>
+      <c r="G65" s="309"/>
+      <c r="H65" s="309"/>
       <c r="I65" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="J65" s="310"/>
-      <c r="K65" s="310"/>
-      <c r="L65" s="310"/>
-      <c r="M65" s="307"/>
+      <c r="J65" s="307"/>
+      <c r="K65" s="307"/>
+      <c r="L65" s="307"/>
+      <c r="M65" s="308"/>
       <c r="N65" s="126"/>
       <c r="O65" s="126"/>
       <c r="P65" s="126"/>
@@ -10750,19 +10856,19 @@
       <c r="Z65" s="126"/>
     </row>
     <row r="66" spans="1:26" ht="15" customHeight="1">
-      <c r="A66" s="319"/>
-      <c r="B66" s="322"/>
-      <c r="C66" s="316"/>
-      <c r="D66" s="316"/>
-      <c r="E66" s="316"/>
-      <c r="F66" s="316"/>
-      <c r="G66" s="316"/>
-      <c r="H66" s="316"/>
+      <c r="A66" s="338"/>
+      <c r="B66" s="324"/>
+      <c r="C66" s="310"/>
+      <c r="D66" s="310"/>
+      <c r="E66" s="310"/>
+      <c r="F66" s="310"/>
+      <c r="G66" s="310"/>
+      <c r="H66" s="310"/>
       <c r="I66" s="144"/>
-      <c r="J66" s="311"/>
-      <c r="K66" s="311"/>
-      <c r="L66" s="311"/>
-      <c r="M66" s="308"/>
+      <c r="J66" s="319"/>
+      <c r="K66" s="319"/>
+      <c r="L66" s="319"/>
+      <c r="M66" s="318"/>
       <c r="N66" s="126"/>
       <c r="O66" s="126"/>
       <c r="P66" s="126"/>
@@ -10778,35 +10884,35 @@
       <c r="Z66" s="126"/>
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="317" t="s">
+      <c r="A67" s="336" t="s">
         <v>459</v>
       </c>
-      <c r="B67" s="310" t="s">
+      <c r="B67" s="307" t="s">
         <v>346</v>
       </c>
-      <c r="C67" s="334" t="s">
+      <c r="C67" s="311" t="s">
         <v>357</v>
       </c>
-      <c r="D67" s="313"/>
-      <c r="E67" s="313"/>
-      <c r="F67" s="313"/>
-      <c r="G67" s="313"/>
-      <c r="H67" s="307" t="s">
+      <c r="D67" s="312"/>
+      <c r="E67" s="312"/>
+      <c r="F67" s="312"/>
+      <c r="G67" s="312"/>
+      <c r="H67" s="308" t="s">
         <v>486</v>
       </c>
       <c r="I67" s="145" t="s">
         <v>358</v>
       </c>
-      <c r="J67" s="310">
+      <c r="J67" s="307">
         <v>1</v>
       </c>
-      <c r="K67" s="310">
+      <c r="K67" s="307">
         <v>3</v>
       </c>
-      <c r="L67" s="310">
+      <c r="L67" s="307">
         <v>3</v>
       </c>
-      <c r="M67" s="307"/>
+      <c r="M67" s="308"/>
       <c r="N67" s="126"/>
       <c r="O67" s="126"/>
       <c r="P67" s="126"/>
@@ -10822,21 +10928,21 @@
       <c r="Z67" s="126"/>
     </row>
     <row r="68" spans="1:26" ht="15.6">
-      <c r="A68" s="317"/>
-      <c r="B68" s="315"/>
-      <c r="C68" s="315"/>
-      <c r="D68" s="315"/>
-      <c r="E68" s="315"/>
-      <c r="F68" s="315"/>
-      <c r="G68" s="315"/>
-      <c r="H68" s="315"/>
+      <c r="A68" s="336"/>
+      <c r="B68" s="309"/>
+      <c r="C68" s="309"/>
+      <c r="D68" s="309"/>
+      <c r="E68" s="309"/>
+      <c r="F68" s="309"/>
+      <c r="G68" s="309"/>
+      <c r="H68" s="309"/>
       <c r="I68" s="136" t="s">
         <v>400</v>
       </c>
-      <c r="J68" s="315"/>
-      <c r="K68" s="315"/>
-      <c r="L68" s="315"/>
-      <c r="M68" s="315"/>
+      <c r="J68" s="309"/>
+      <c r="K68" s="309"/>
+      <c r="L68" s="309"/>
+      <c r="M68" s="309"/>
       <c r="N68" s="126"/>
       <c r="O68" s="126"/>
       <c r="P68" s="126"/>
@@ -10852,19 +10958,19 @@
       <c r="Z68" s="126"/>
     </row>
     <row r="69" spans="1:26" ht="15.6">
-      <c r="A69" s="317"/>
-      <c r="B69" s="315"/>
-      <c r="C69" s="315"/>
-      <c r="D69" s="315"/>
-      <c r="E69" s="315"/>
-      <c r="F69" s="315"/>
-      <c r="G69" s="315"/>
-      <c r="H69" s="315"/>
+      <c r="A69" s="336"/>
+      <c r="B69" s="309"/>
+      <c r="C69" s="309"/>
+      <c r="D69" s="309"/>
+      <c r="E69" s="309"/>
+      <c r="F69" s="309"/>
+      <c r="G69" s="309"/>
+      <c r="H69" s="309"/>
       <c r="I69" s="136"/>
-      <c r="J69" s="315"/>
-      <c r="K69" s="315"/>
-      <c r="L69" s="315"/>
-      <c r="M69" s="315"/>
+      <c r="J69" s="309"/>
+      <c r="K69" s="309"/>
+      <c r="L69" s="309"/>
+      <c r="M69" s="309"/>
       <c r="N69" s="126"/>
       <c r="O69" s="126"/>
       <c r="P69" s="126"/>
@@ -10880,19 +10986,19 @@
       <c r="Z69" s="126"/>
     </row>
     <row r="70" spans="1:26" ht="15.6">
-      <c r="A70" s="317"/>
-      <c r="B70" s="315"/>
-      <c r="C70" s="315"/>
-      <c r="D70" s="315"/>
-      <c r="E70" s="315"/>
-      <c r="F70" s="315"/>
-      <c r="G70" s="315"/>
-      <c r="H70" s="315"/>
+      <c r="A70" s="336"/>
+      <c r="B70" s="309"/>
+      <c r="C70" s="309"/>
+      <c r="D70" s="309"/>
+      <c r="E70" s="309"/>
+      <c r="F70" s="309"/>
+      <c r="G70" s="309"/>
+      <c r="H70" s="309"/>
       <c r="I70" s="136"/>
-      <c r="J70" s="315"/>
-      <c r="K70" s="315"/>
-      <c r="L70" s="315"/>
-      <c r="M70" s="315"/>
+      <c r="J70" s="309"/>
+      <c r="K70" s="309"/>
+      <c r="L70" s="309"/>
+      <c r="M70" s="309"/>
       <c r="N70" s="126"/>
       <c r="O70" s="126"/>
       <c r="P70" s="126"/>
@@ -10908,19 +11014,19 @@
       <c r="Z70" s="126"/>
     </row>
     <row r="71" spans="1:26" ht="15.6">
-      <c r="A71" s="317"/>
-      <c r="B71" s="315"/>
-      <c r="C71" s="315"/>
-      <c r="D71" s="315"/>
-      <c r="E71" s="315"/>
-      <c r="F71" s="315"/>
-      <c r="G71" s="315"/>
-      <c r="H71" s="315"/>
+      <c r="A71" s="336"/>
+      <c r="B71" s="309"/>
+      <c r="C71" s="309"/>
+      <c r="D71" s="309"/>
+      <c r="E71" s="309"/>
+      <c r="F71" s="309"/>
+      <c r="G71" s="309"/>
+      <c r="H71" s="309"/>
       <c r="I71" s="136"/>
-      <c r="J71" s="315"/>
-      <c r="K71" s="315"/>
-      <c r="L71" s="315"/>
-      <c r="M71" s="315"/>
+      <c r="J71" s="309"/>
+      <c r="K71" s="309"/>
+      <c r="L71" s="309"/>
+      <c r="M71" s="309"/>
       <c r="N71" s="126"/>
       <c r="O71" s="126"/>
       <c r="P71" s="126"/>
@@ -10936,19 +11042,19 @@
       <c r="Z71" s="126"/>
     </row>
     <row r="72" spans="1:26" ht="15.6">
-      <c r="A72" s="317"/>
-      <c r="B72" s="316"/>
-      <c r="C72" s="316"/>
-      <c r="D72" s="316"/>
-      <c r="E72" s="316"/>
-      <c r="F72" s="316"/>
-      <c r="G72" s="316"/>
-      <c r="H72" s="316"/>
+      <c r="A72" s="336"/>
+      <c r="B72" s="310"/>
+      <c r="C72" s="310"/>
+      <c r="D72" s="310"/>
+      <c r="E72" s="310"/>
+      <c r="F72" s="310"/>
+      <c r="G72" s="310"/>
+      <c r="H72" s="310"/>
       <c r="I72" s="149"/>
-      <c r="J72" s="316"/>
-      <c r="K72" s="316"/>
-      <c r="L72" s="316"/>
-      <c r="M72" s="316"/>
+      <c r="J72" s="310"/>
+      <c r="K72" s="310"/>
+      <c r="L72" s="310"/>
+      <c r="M72" s="310"/>
       <c r="N72" s="126"/>
       <c r="O72" s="126"/>
       <c r="P72" s="126"/>
@@ -10964,19 +11070,19 @@
       <c r="Z72" s="126"/>
     </row>
     <row r="73" spans="1:26" ht="15.6">
-      <c r="A73" s="317"/>
-      <c r="B73" s="309"/>
-      <c r="C73" s="334"/>
-      <c r="D73" s="313"/>
-      <c r="E73" s="313"/>
-      <c r="F73" s="313"/>
-      <c r="G73" s="313"/>
-      <c r="H73" s="335"/>
+      <c r="A73" s="336"/>
+      <c r="B73" s="306"/>
+      <c r="C73" s="311"/>
+      <c r="D73" s="312"/>
+      <c r="E73" s="312"/>
+      <c r="F73" s="312"/>
+      <c r="G73" s="312"/>
+      <c r="H73" s="313"/>
       <c r="I73" s="143"/>
-      <c r="J73" s="338"/>
-      <c r="K73" s="338"/>
-      <c r="L73" s="310"/>
-      <c r="M73" s="307"/>
+      <c r="J73" s="316"/>
+      <c r="K73" s="316"/>
+      <c r="L73" s="307"/>
+      <c r="M73" s="308"/>
       <c r="N73" s="126"/>
       <c r="O73" s="126"/>
       <c r="P73" s="126"/>
@@ -10992,19 +11098,19 @@
       <c r="Z73" s="126"/>
     </row>
     <row r="74" spans="1:26" ht="15.6">
-      <c r="A74" s="317"/>
-      <c r="B74" s="315"/>
-      <c r="C74" s="315"/>
-      <c r="D74" s="315"/>
-      <c r="E74" s="315"/>
-      <c r="F74" s="315"/>
-      <c r="G74" s="315"/>
-      <c r="H74" s="336"/>
+      <c r="A74" s="336"/>
+      <c r="B74" s="309"/>
+      <c r="C74" s="309"/>
+      <c r="D74" s="309"/>
+      <c r="E74" s="309"/>
+      <c r="F74" s="309"/>
+      <c r="G74" s="309"/>
+      <c r="H74" s="314"/>
       <c r="I74" s="143"/>
-      <c r="J74" s="336"/>
-      <c r="K74" s="336"/>
-      <c r="L74" s="315"/>
-      <c r="M74" s="315"/>
+      <c r="J74" s="314"/>
+      <c r="K74" s="314"/>
+      <c r="L74" s="309"/>
+      <c r="M74" s="309"/>
       <c r="N74" s="126"/>
       <c r="O74" s="126"/>
       <c r="P74" s="126"/>
@@ -11020,19 +11126,19 @@
       <c r="Z74" s="126"/>
     </row>
     <row r="75" spans="1:26" ht="15.6">
-      <c r="A75" s="317"/>
-      <c r="B75" s="315"/>
-      <c r="C75" s="315"/>
-      <c r="D75" s="315"/>
-      <c r="E75" s="315"/>
-      <c r="F75" s="315"/>
-      <c r="G75" s="315"/>
-      <c r="H75" s="336"/>
+      <c r="A75" s="336"/>
+      <c r="B75" s="309"/>
+      <c r="C75" s="309"/>
+      <c r="D75" s="309"/>
+      <c r="E75" s="309"/>
+      <c r="F75" s="309"/>
+      <c r="G75" s="309"/>
+      <c r="H75" s="314"/>
       <c r="I75" s="143"/>
-      <c r="J75" s="336"/>
-      <c r="K75" s="336"/>
-      <c r="L75" s="315"/>
-      <c r="M75" s="315"/>
+      <c r="J75" s="314"/>
+      <c r="K75" s="314"/>
+      <c r="L75" s="309"/>
+      <c r="M75" s="309"/>
       <c r="N75" s="126"/>
       <c r="O75" s="126"/>
       <c r="P75" s="126"/>
@@ -11048,19 +11154,19 @@
       <c r="Z75" s="126"/>
     </row>
     <row r="76" spans="1:26" ht="15.6">
-      <c r="A76" s="317"/>
-      <c r="B76" s="315"/>
-      <c r="C76" s="315"/>
-      <c r="D76" s="315"/>
-      <c r="E76" s="315"/>
-      <c r="F76" s="315"/>
-      <c r="G76" s="315"/>
-      <c r="H76" s="336"/>
+      <c r="A76" s="336"/>
+      <c r="B76" s="309"/>
+      <c r="C76" s="309"/>
+      <c r="D76" s="309"/>
+      <c r="E76" s="309"/>
+      <c r="F76" s="309"/>
+      <c r="G76" s="309"/>
+      <c r="H76" s="314"/>
       <c r="I76" s="143"/>
-      <c r="J76" s="336"/>
-      <c r="K76" s="336"/>
-      <c r="L76" s="315"/>
-      <c r="M76" s="315"/>
+      <c r="J76" s="314"/>
+      <c r="K76" s="314"/>
+      <c r="L76" s="309"/>
+      <c r="M76" s="309"/>
       <c r="N76" s="126"/>
       <c r="O76" s="126"/>
       <c r="P76" s="126"/>
@@ -11076,19 +11182,19 @@
       <c r="Z76" s="126"/>
     </row>
     <row r="77" spans="1:26" ht="15.6">
-      <c r="A77" s="317"/>
-      <c r="B77" s="315"/>
-      <c r="C77" s="315"/>
-      <c r="D77" s="315"/>
-      <c r="E77" s="315"/>
-      <c r="F77" s="315"/>
-      <c r="G77" s="315"/>
-      <c r="H77" s="336"/>
+      <c r="A77" s="336"/>
+      <c r="B77" s="309"/>
+      <c r="C77" s="309"/>
+      <c r="D77" s="309"/>
+      <c r="E77" s="309"/>
+      <c r="F77" s="309"/>
+      <c r="G77" s="309"/>
+      <c r="H77" s="314"/>
       <c r="I77" s="143"/>
-      <c r="J77" s="336"/>
-      <c r="K77" s="336"/>
-      <c r="L77" s="315"/>
-      <c r="M77" s="315"/>
+      <c r="J77" s="314"/>
+      <c r="K77" s="314"/>
+      <c r="L77" s="309"/>
+      <c r="M77" s="309"/>
       <c r="N77" s="126"/>
       <c r="O77" s="126"/>
       <c r="P77" s="126"/>
@@ -11104,19 +11210,19 @@
       <c r="Z77" s="126"/>
     </row>
     <row r="78" spans="1:26" ht="15.6">
-      <c r="A78" s="318"/>
-      <c r="B78" s="316"/>
-      <c r="C78" s="316"/>
-      <c r="D78" s="316"/>
-      <c r="E78" s="316"/>
-      <c r="F78" s="316"/>
-      <c r="G78" s="316"/>
-      <c r="H78" s="337"/>
+      <c r="A78" s="337"/>
+      <c r="B78" s="310"/>
+      <c r="C78" s="310"/>
+      <c r="D78" s="310"/>
+      <c r="E78" s="310"/>
+      <c r="F78" s="310"/>
+      <c r="G78" s="310"/>
+      <c r="H78" s="315"/>
       <c r="I78" s="148"/>
-      <c r="J78" s="337"/>
-      <c r="K78" s="337"/>
-      <c r="L78" s="316"/>
-      <c r="M78" s="316"/>
+      <c r="J78" s="315"/>
+      <c r="K78" s="315"/>
+      <c r="L78" s="310"/>
+      <c r="M78" s="310"/>
       <c r="N78" s="126"/>
       <c r="O78" s="126"/>
       <c r="P78" s="126"/>
@@ -26679,6 +26785,97 @@
     </row>
   </sheetData>
   <mergeCells count="115">
+    <mergeCell ref="M43:M48"/>
+    <mergeCell ref="H31:H36"/>
+    <mergeCell ref="J31:J36"/>
+    <mergeCell ref="K31:K36"/>
+    <mergeCell ref="L31:L36"/>
+    <mergeCell ref="M31:M36"/>
+    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="G37:G42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="H43:H48"/>
+    <mergeCell ref="J43:J48"/>
+    <mergeCell ref="K43:K48"/>
+    <mergeCell ref="L43:L48"/>
+    <mergeCell ref="A67:A78"/>
+    <mergeCell ref="A49:A66"/>
+    <mergeCell ref="A31:A48"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="F31:F36"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="E43:E48"/>
+    <mergeCell ref="F43:F48"/>
+    <mergeCell ref="G43:G48"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="D55:D60"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="G55:G60"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="H2:L4"/>
+    <mergeCell ref="A6:A23"/>
+    <mergeCell ref="B6:B23"/>
+    <mergeCell ref="C6:C23"/>
+    <mergeCell ref="D6:D23"/>
+    <mergeCell ref="E6:E23"/>
+    <mergeCell ref="F6:F23"/>
+    <mergeCell ref="G6:G23"/>
+    <mergeCell ref="H6:H23"/>
+    <mergeCell ref="J25:J30"/>
+    <mergeCell ref="K25:K30"/>
+    <mergeCell ref="L25:L30"/>
+    <mergeCell ref="M25:M30"/>
+    <mergeCell ref="M6:M23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B25:B30"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="F25:F30"/>
+    <mergeCell ref="G25:G30"/>
+    <mergeCell ref="H25:H30"/>
+    <mergeCell ref="B49:B54"/>
+    <mergeCell ref="C49:C54"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="E49:E54"/>
+    <mergeCell ref="F49:F54"/>
+    <mergeCell ref="M55:M60"/>
+    <mergeCell ref="B61:B66"/>
+    <mergeCell ref="C61:C66"/>
+    <mergeCell ref="D61:D66"/>
+    <mergeCell ref="E61:E66"/>
+    <mergeCell ref="F61:F66"/>
+    <mergeCell ref="G61:G66"/>
+    <mergeCell ref="H61:H66"/>
+    <mergeCell ref="J61:J66"/>
+    <mergeCell ref="K61:K66"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="J67:J72"/>
+    <mergeCell ref="K67:K72"/>
+    <mergeCell ref="L67:L72"/>
+    <mergeCell ref="L61:L66"/>
+    <mergeCell ref="M61:M66"/>
+    <mergeCell ref="G49:G54"/>
+    <mergeCell ref="H49:H54"/>
+    <mergeCell ref="J49:J54"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="L49:L54"/>
+    <mergeCell ref="M49:M54"/>
     <mergeCell ref="A25:A30"/>
     <mergeCell ref="M67:M72"/>
     <mergeCell ref="B67:B72"/>
@@ -26703,97 +26900,6 @@
     <mergeCell ref="L55:L60"/>
     <mergeCell ref="G67:G72"/>
     <mergeCell ref="H67:H72"/>
-    <mergeCell ref="J67:J72"/>
-    <mergeCell ref="K67:K72"/>
-    <mergeCell ref="L67:L72"/>
-    <mergeCell ref="L61:L66"/>
-    <mergeCell ref="M61:M66"/>
-    <mergeCell ref="G49:G54"/>
-    <mergeCell ref="H49:H54"/>
-    <mergeCell ref="J49:J54"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="L49:L54"/>
-    <mergeCell ref="M49:M54"/>
-    <mergeCell ref="B49:B54"/>
-    <mergeCell ref="C49:C54"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="E49:E54"/>
-    <mergeCell ref="F49:F54"/>
-    <mergeCell ref="M55:M60"/>
-    <mergeCell ref="B61:B66"/>
-    <mergeCell ref="C61:C66"/>
-    <mergeCell ref="D61:D66"/>
-    <mergeCell ref="E61:E66"/>
-    <mergeCell ref="F61:F66"/>
-    <mergeCell ref="G61:G66"/>
-    <mergeCell ref="H61:H66"/>
-    <mergeCell ref="J61:J66"/>
-    <mergeCell ref="K61:K66"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="J25:J30"/>
-    <mergeCell ref="K25:K30"/>
-    <mergeCell ref="L25:L30"/>
-    <mergeCell ref="M25:M30"/>
-    <mergeCell ref="M6:M23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B25:B30"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="F25:F30"/>
-    <mergeCell ref="G25:G30"/>
-    <mergeCell ref="H25:H30"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="H2:L4"/>
-    <mergeCell ref="A6:A23"/>
-    <mergeCell ref="B6:B23"/>
-    <mergeCell ref="C6:C23"/>
-    <mergeCell ref="D6:D23"/>
-    <mergeCell ref="E6:E23"/>
-    <mergeCell ref="F6:F23"/>
-    <mergeCell ref="G6:G23"/>
-    <mergeCell ref="H6:H23"/>
-    <mergeCell ref="A67:A78"/>
-    <mergeCell ref="A49:A66"/>
-    <mergeCell ref="A31:A48"/>
-    <mergeCell ref="B31:B36"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="F31:F36"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="D43:D48"/>
-    <mergeCell ref="E43:E48"/>
-    <mergeCell ref="F43:F48"/>
-    <mergeCell ref="G43:G48"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="D55:D60"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="G55:G60"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D37:D42"/>
-    <mergeCell ref="E37:E42"/>
-    <mergeCell ref="M43:M48"/>
-    <mergeCell ref="H31:H36"/>
-    <mergeCell ref="J31:J36"/>
-    <mergeCell ref="K31:K36"/>
-    <mergeCell ref="L31:L36"/>
-    <mergeCell ref="M31:M36"/>
-    <mergeCell ref="L37:L42"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="F37:F42"/>
-    <mergeCell ref="G37:G42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="H43:H48"/>
-    <mergeCell ref="J43:J48"/>
-    <mergeCell ref="K43:K48"/>
-    <mergeCell ref="L43:L48"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26820,10 +26926,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
       <c r="A1" s="167"/>
-      <c r="B1" s="343" t="s">
+      <c r="B1" s="349" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="344"/>
+      <c r="C1" s="350"/>
       <c r="D1" s="167"/>
       <c r="E1" s="168"/>
       <c r="F1" s="168"/>
@@ -26834,41 +26940,41 @@
     </row>
     <row r="2" spans="1:10" ht="15.6" customHeight="1">
       <c r="A2" s="167"/>
-      <c r="B2" s="344"/>
-      <c r="C2" s="344"/>
-      <c r="D2" s="341" t="s">
+      <c r="B2" s="350"/>
+      <c r="C2" s="350"/>
+      <c r="D2" s="347" t="s">
         <v>377</v>
       </c>
-      <c r="E2" s="341"/>
-      <c r="F2" s="341"/>
-      <c r="G2" s="341"/>
-      <c r="H2" s="341"/>
-      <c r="I2" s="341"/>
-      <c r="J2" s="341"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
+      <c r="J2" s="347"/>
     </row>
     <row r="3" spans="1:10" ht="15.6">
       <c r="A3" s="167"/>
-      <c r="B3" s="344"/>
-      <c r="C3" s="344"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341"/>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
+      <c r="B3" s="350"/>
+      <c r="C3" s="350"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="347"/>
     </row>
     <row r="4" spans="1:10" ht="15.6">
       <c r="A4" s="167"/>
-      <c r="B4" s="345"/>
-      <c r="C4" s="345"/>
-      <c r="D4" s="342"/>
-      <c r="E4" s="342"/>
-      <c r="F4" s="342"/>
-      <c r="G4" s="342"/>
-      <c r="H4" s="342"/>
-      <c r="I4" s="342"/>
-      <c r="J4" s="342"/>
+      <c r="B4" s="351"/>
+      <c r="C4" s="351"/>
+      <c r="D4" s="348"/>
+      <c r="E4" s="348"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="348"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="169" t="s">
@@ -26883,23 +26989,23 @@
       <c r="D5" s="171" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="346" t="s">
+      <c r="E5" s="352" t="s">
         <v>378</v>
       </c>
-      <c r="F5" s="347"/>
-      <c r="G5" s="347"/>
-      <c r="H5" s="347"/>
-      <c r="I5" s="347"/>
-      <c r="J5" s="348"/>
+      <c r="F5" s="353"/>
+      <c r="G5" s="353"/>
+      <c r="H5" s="353"/>
+      <c r="I5" s="353"/>
+      <c r="J5" s="354"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="338" t="s">
+      <c r="A6" s="316" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="309" t="s">
+      <c r="B6" s="306" t="s">
         <v>339</v>
       </c>
-      <c r="C6" s="312"/>
+      <c r="C6" s="320"/>
       <c r="D6" s="172" t="s">
         <v>379</v>
       </c>
@@ -26911,9 +27017,9 @@
       <c r="J6" s="173"/>
     </row>
     <row r="7" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A7" s="339"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="315"/>
+      <c r="A7" s="345"/>
+      <c r="B7" s="309"/>
+      <c r="C7" s="309"/>
       <c r="D7" s="143"/>
       <c r="E7" s="174"/>
       <c r="F7" s="174"/>
@@ -26923,9 +27029,9 @@
       <c r="J7" s="174"/>
     </row>
     <row r="8" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A8" s="339"/>
-      <c r="B8" s="315"/>
-      <c r="C8" s="315"/>
+      <c r="A8" s="345"/>
+      <c r="B8" s="309"/>
+      <c r="C8" s="309"/>
       <c r="D8" s="143"/>
       <c r="E8" s="175"/>
       <c r="F8" s="175"/>
@@ -26935,9 +27041,9 @@
       <c r="J8" s="175"/>
     </row>
     <row r="9" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A9" s="339"/>
-      <c r="B9" s="315"/>
-      <c r="C9" s="315"/>
+      <c r="A9" s="345"/>
+      <c r="B9" s="309"/>
+      <c r="C9" s="309"/>
       <c r="D9" s="143"/>
       <c r="E9" s="175"/>
       <c r="F9" s="175"/>
@@ -26947,9 +27053,9 @@
       <c r="J9" s="175"/>
     </row>
     <row r="10" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A10" s="339"/>
-      <c r="B10" s="315"/>
-      <c r="C10" s="315"/>
+      <c r="A10" s="345"/>
+      <c r="B10" s="309"/>
+      <c r="C10" s="309"/>
       <c r="D10" s="143"/>
       <c r="E10" s="175"/>
       <c r="F10" s="175"/>
@@ -26959,9 +27065,9 @@
       <c r="J10" s="175"/>
     </row>
     <row r="11" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A11" s="339"/>
-      <c r="B11" s="315"/>
-      <c r="C11" s="315"/>
+      <c r="A11" s="345"/>
+      <c r="B11" s="309"/>
+      <c r="C11" s="309"/>
       <c r="D11" s="143"/>
       <c r="E11" s="175"/>
       <c r="F11" s="175"/>
@@ -26971,9 +27077,9 @@
       <c r="J11" s="175"/>
     </row>
     <row r="12" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A12" s="340"/>
-      <c r="B12" s="316"/>
-      <c r="C12" s="316"/>
+      <c r="A12" s="346"/>
+      <c r="B12" s="310"/>
+      <c r="C12" s="310"/>
       <c r="D12" s="144"/>
       <c r="E12" s="176"/>
       <c r="F12" s="176"/>
@@ -26983,13 +27089,13 @@
       <c r="J12" s="176"/>
     </row>
     <row r="13" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A13" s="349" t="s">
+      <c r="A13" s="339" t="s">
         <v>509</v>
       </c>
-      <c r="B13" s="309" t="s">
+      <c r="B13" s="306" t="s">
         <v>343</v>
       </c>
-      <c r="C13" s="324" t="s">
+      <c r="C13" s="326" t="s">
         <v>388</v>
       </c>
       <c r="D13" s="172" t="s">
@@ -27005,9 +27111,9 @@
       <c r="J13" s="173"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="350"/>
-      <c r="B14" s="315"/>
-      <c r="C14" s="315"/>
+      <c r="A14" s="340"/>
+      <c r="B14" s="309"/>
+      <c r="C14" s="309"/>
       <c r="D14" s="133" t="s">
         <v>403</v>
       </c>
@@ -27021,9 +27127,9 @@
       <c r="J14" s="174"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="350"/>
-      <c r="B15" s="315"/>
-      <c r="C15" s="315"/>
+      <c r="A15" s="340"/>
+      <c r="B15" s="309"/>
+      <c r="C15" s="309"/>
       <c r="D15" s="133"/>
       <c r="E15" s="175"/>
       <c r="F15" s="175"/>
@@ -27033,9 +27139,9 @@
       <c r="J15" s="175"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="350"/>
-      <c r="B16" s="315"/>
-      <c r="C16" s="315"/>
+      <c r="A16" s="340"/>
+      <c r="B16" s="309"/>
+      <c r="C16" s="309"/>
       <c r="D16" s="133"/>
       <c r="E16" s="175"/>
       <c r="F16" s="175"/>
@@ -27045,9 +27151,9 @@
       <c r="J16" s="175"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="350"/>
-      <c r="B17" s="315"/>
-      <c r="C17" s="315"/>
+      <c r="A17" s="340"/>
+      <c r="B17" s="309"/>
+      <c r="C17" s="309"/>
       <c r="D17" s="133"/>
       <c r="E17" s="175"/>
       <c r="F17" s="175"/>
@@ -27057,9 +27163,9 @@
       <c r="J17" s="175"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="350"/>
-      <c r="B18" s="315"/>
-      <c r="C18" s="315"/>
+      <c r="A18" s="340"/>
+      <c r="B18" s="309"/>
+      <c r="C18" s="309"/>
       <c r="D18" s="133"/>
       <c r="E18" s="175"/>
       <c r="F18" s="175"/>
@@ -27069,9 +27175,9 @@
       <c r="J18" s="175"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="350"/>
-      <c r="B19" s="316"/>
-      <c r="C19" s="316"/>
+      <c r="A19" s="340"/>
+      <c r="B19" s="310"/>
+      <c r="C19" s="310"/>
       <c r="D19" s="146"/>
       <c r="E19" s="176"/>
       <c r="F19" s="176"/>
@@ -27081,11 +27187,11 @@
       <c r="J19" s="176"/>
     </row>
     <row r="20" spans="1:10" ht="13.8">
-      <c r="A20" s="350"/>
-      <c r="B20" s="309" t="s">
+      <c r="A20" s="340"/>
+      <c r="B20" s="306" t="s">
         <v>344</v>
       </c>
-      <c r="C20" s="324" t="s">
+      <c r="C20" s="326" t="s">
         <v>389</v>
       </c>
       <c r="D20" s="172" t="s">
@@ -27101,9 +27207,9 @@
       <c r="J20" s="178"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="350"/>
-      <c r="B21" s="315"/>
-      <c r="C21" s="315"/>
+      <c r="A21" s="340"/>
+      <c r="B21" s="309"/>
+      <c r="C21" s="309"/>
       <c r="D21" s="133" t="s">
         <v>359</v>
       </c>
@@ -27117,9 +27223,9 @@
       <c r="J21" s="174"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="350"/>
-      <c r="B22" s="315"/>
-      <c r="C22" s="315"/>
+      <c r="A22" s="340"/>
+      <c r="B22" s="309"/>
+      <c r="C22" s="309"/>
       <c r="D22" s="133" t="s">
         <v>360</v>
       </c>
@@ -27133,9 +27239,9 @@
       <c r="J22" s="175"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="350"/>
-      <c r="B23" s="315"/>
-      <c r="C23" s="315"/>
+      <c r="A23" s="340"/>
+      <c r="B23" s="309"/>
+      <c r="C23" s="309"/>
       <c r="D23" s="147"/>
       <c r="E23" s="175"/>
       <c r="F23" s="175"/>
@@ -27145,9 +27251,9 @@
       <c r="J23" s="175"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="350"/>
-      <c r="B24" s="315"/>
-      <c r="C24" s="315"/>
+      <c r="A24" s="340"/>
+      <c r="B24" s="309"/>
+      <c r="C24" s="309"/>
       <c r="D24" s="133"/>
       <c r="E24" s="175"/>
       <c r="F24" s="175"/>
@@ -27157,9 +27263,9 @@
       <c r="J24" s="175"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="350"/>
-      <c r="B25" s="315"/>
-      <c r="C25" s="315"/>
+      <c r="A25" s="340"/>
+      <c r="B25" s="309"/>
+      <c r="C25" s="309"/>
       <c r="D25" s="133"/>
       <c r="E25" s="175"/>
       <c r="F25" s="175"/>
@@ -27169,9 +27275,9 @@
       <c r="J25" s="175"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="350"/>
-      <c r="B26" s="316"/>
-      <c r="C26" s="316"/>
+      <c r="A26" s="340"/>
+      <c r="B26" s="310"/>
+      <c r="C26" s="310"/>
       <c r="D26" s="144"/>
       <c r="E26" s="176"/>
       <c r="F26" s="176"/>
@@ -27181,11 +27287,11 @@
       <c r="J26" s="176"/>
     </row>
     <row r="27" spans="1:10" ht="13.8">
-      <c r="A27" s="350"/>
-      <c r="B27" s="309" t="s">
+      <c r="A27" s="340"/>
+      <c r="B27" s="306" t="s">
         <v>345</v>
       </c>
-      <c r="C27" s="324" t="s">
+      <c r="C27" s="326" t="s">
         <v>390</v>
       </c>
       <c r="D27" s="172" t="s">
@@ -27207,9 +27313,9 @@
       <c r="J27" s="173"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="350"/>
-      <c r="B28" s="315"/>
-      <c r="C28" s="315"/>
+      <c r="A28" s="340"/>
+      <c r="B28" s="309"/>
+      <c r="C28" s="309"/>
       <c r="D28" s="133" t="s">
         <v>356</v>
       </c>
@@ -27223,9 +27329,9 @@
       <c r="J28" s="174"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="350"/>
-      <c r="B29" s="315"/>
-      <c r="C29" s="315"/>
+      <c r="A29" s="340"/>
+      <c r="B29" s="309"/>
+      <c r="C29" s="309"/>
       <c r="D29" s="147" t="s">
         <v>352</v>
       </c>
@@ -27239,9 +27345,9 @@
       <c r="J29" s="175"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="350"/>
-      <c r="B30" s="315"/>
-      <c r="C30" s="315"/>
+      <c r="A30" s="340"/>
+      <c r="B30" s="309"/>
+      <c r="C30" s="309"/>
       <c r="D30" s="133" t="s">
         <v>353</v>
       </c>
@@ -27255,9 +27361,9 @@
       <c r="J30" s="175"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="350"/>
-      <c r="B31" s="315"/>
-      <c r="C31" s="315"/>
+      <c r="A31" s="340"/>
+      <c r="B31" s="309"/>
+      <c r="C31" s="309"/>
       <c r="D31" s="133" t="s">
         <v>354</v>
       </c>
@@ -27271,9 +27377,9 @@
       <c r="J31" s="175"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="350"/>
-      <c r="B32" s="315"/>
-      <c r="C32" s="315"/>
+      <c r="A32" s="340"/>
+      <c r="B32" s="309"/>
+      <c r="C32" s="309"/>
       <c r="D32" s="133" t="s">
         <v>355</v>
       </c>
@@ -27287,9 +27393,9 @@
       <c r="J32" s="175"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="350"/>
-      <c r="B33" s="316"/>
-      <c r="C33" s="316"/>
+      <c r="A33" s="340"/>
+      <c r="B33" s="310"/>
+      <c r="C33" s="310"/>
       <c r="D33" s="144"/>
       <c r="E33" s="176"/>
       <c r="F33" s="176"/>
@@ -27299,13 +27405,13 @@
       <c r="J33" s="176"/>
     </row>
     <row r="34" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A34" s="351" t="s">
+      <c r="A34" s="341" t="s">
         <v>385</v>
       </c>
-      <c r="B34" s="320" t="s">
+      <c r="B34" s="322" t="s">
         <v>382</v>
       </c>
-      <c r="C34" s="323" t="s">
+      <c r="C34" s="325" t="s">
         <v>391</v>
       </c>
       <c r="D34" s="172" t="s">
@@ -27327,9 +27433,9 @@
       <c r="J34" s="173"/>
     </row>
     <row r="35" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A35" s="352"/>
-      <c r="B35" s="353"/>
-      <c r="C35" s="324"/>
+      <c r="A35" s="342"/>
+      <c r="B35" s="343"/>
+      <c r="C35" s="326"/>
       <c r="D35" s="166" t="s">
         <v>358</v>
       </c>
@@ -27343,9 +27449,9 @@
       <c r="J35" s="174"/>
     </row>
     <row r="36" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A36" s="352"/>
-      <c r="B36" s="353"/>
-      <c r="C36" s="324"/>
+      <c r="A36" s="342"/>
+      <c r="B36" s="343"/>
+      <c r="C36" s="326"/>
       <c r="D36" s="133" t="s">
         <v>400</v>
       </c>
@@ -27363,9 +27469,9 @@
       <c r="J36" s="175"/>
     </row>
     <row r="37" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A37" s="352"/>
-      <c r="B37" s="353"/>
-      <c r="C37" s="324"/>
+      <c r="A37" s="342"/>
+      <c r="B37" s="343"/>
+      <c r="C37" s="326"/>
       <c r="D37" s="133"/>
       <c r="E37" s="175"/>
       <c r="F37" s="175"/>
@@ -27375,9 +27481,9 @@
       <c r="J37" s="175"/>
     </row>
     <row r="38" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A38" s="352"/>
-      <c r="B38" s="353"/>
-      <c r="C38" s="324"/>
+      <c r="A38" s="342"/>
+      <c r="B38" s="343"/>
+      <c r="C38" s="326"/>
       <c r="D38" s="133"/>
       <c r="E38" s="175"/>
       <c r="F38" s="175"/>
@@ -27387,9 +27493,9 @@
       <c r="J38" s="175"/>
     </row>
     <row r="39" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A39" s="352"/>
-      <c r="B39" s="353"/>
-      <c r="C39" s="324"/>
+      <c r="A39" s="342"/>
+      <c r="B39" s="343"/>
+      <c r="C39" s="326"/>
       <c r="D39" s="133"/>
       <c r="E39" s="175"/>
       <c r="F39" s="175"/>
@@ -27399,9 +27505,9 @@
       <c r="J39" s="175"/>
     </row>
     <row r="40" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A40" s="352"/>
-      <c r="B40" s="354"/>
-      <c r="C40" s="325"/>
+      <c r="A40" s="342"/>
+      <c r="B40" s="344"/>
+      <c r="C40" s="327"/>
       <c r="D40" s="144"/>
       <c r="E40" s="176"/>
       <c r="F40" s="176"/>
@@ -27411,11 +27517,11 @@
       <c r="J40" s="176"/>
     </row>
     <row r="41" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A41" s="352"/>
-      <c r="B41" s="320" t="s">
+      <c r="A41" s="342"/>
+      <c r="B41" s="322" t="s">
         <v>383</v>
       </c>
-      <c r="C41" s="323"/>
+      <c r="C41" s="325"/>
       <c r="D41" s="172" t="s">
         <v>379</v>
       </c>
@@ -27427,9 +27533,9 @@
       <c r="J41" s="173"/>
     </row>
     <row r="42" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A42" s="352"/>
-      <c r="B42" s="353"/>
-      <c r="C42" s="324"/>
+      <c r="A42" s="342"/>
+      <c r="B42" s="343"/>
+      <c r="C42" s="326"/>
       <c r="D42" s="143"/>
       <c r="E42" s="174"/>
       <c r="F42" s="174"/>
@@ -27439,9 +27545,9 @@
       <c r="J42" s="174"/>
     </row>
     <row r="43" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A43" s="352"/>
-      <c r="B43" s="353"/>
-      <c r="C43" s="324"/>
+      <c r="A43" s="342"/>
+      <c r="B43" s="343"/>
+      <c r="C43" s="326"/>
       <c r="D43" s="133"/>
       <c r="E43" s="175"/>
       <c r="F43" s="175"/>
@@ -27451,9 +27557,9 @@
       <c r="J43" s="175"/>
     </row>
     <row r="44" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A44" s="352"/>
-      <c r="B44" s="353"/>
-      <c r="C44" s="324"/>
+      <c r="A44" s="342"/>
+      <c r="B44" s="343"/>
+      <c r="C44" s="326"/>
       <c r="D44" s="133"/>
       <c r="E44" s="175"/>
       <c r="F44" s="175"/>
@@ -27463,9 +27569,9 @@
       <c r="J44" s="175"/>
     </row>
     <row r="45" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A45" s="352"/>
-      <c r="B45" s="353"/>
-      <c r="C45" s="324"/>
+      <c r="A45" s="342"/>
+      <c r="B45" s="343"/>
+      <c r="C45" s="326"/>
       <c r="D45" s="133"/>
       <c r="E45" s="175"/>
       <c r="F45" s="175"/>
@@ -27475,9 +27581,9 @@
       <c r="J45" s="175"/>
     </row>
     <row r="46" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A46" s="352"/>
-      <c r="B46" s="353"/>
-      <c r="C46" s="324"/>
+      <c r="A46" s="342"/>
+      <c r="B46" s="343"/>
+      <c r="C46" s="326"/>
       <c r="D46" s="133"/>
       <c r="E46" s="175"/>
       <c r="F46" s="175"/>
@@ -27487,9 +27593,9 @@
       <c r="J46" s="175"/>
     </row>
     <row r="47" spans="1:10" ht="13.2" customHeight="1">
-      <c r="A47" s="352"/>
-      <c r="B47" s="354"/>
-      <c r="C47" s="325"/>
+      <c r="A47" s="342"/>
+      <c r="B47" s="344"/>
+      <c r="C47" s="327"/>
       <c r="D47" s="144"/>
       <c r="E47" s="176"/>
       <c r="F47" s="176"/>
@@ -27500,6 +27606,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="D2:J4"/>
+    <mergeCell ref="B1:C4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="C6:C12"/>
     <mergeCell ref="A13:A33"/>
     <mergeCell ref="A34:A47"/>
     <mergeCell ref="B34:B40"/>
@@ -27512,12 +27624,6 @@
     <mergeCell ref="C20:C26"/>
     <mergeCell ref="B27:B33"/>
     <mergeCell ref="C27:C33"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="D2:J4"/>
-    <mergeCell ref="B1:C4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="C6:C12"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27551,7 +27657,7 @@
       <c r="B1" s="357" t="s">
         <v>425</v>
       </c>
-      <c r="C1" s="327"/>
+      <c r="C1" s="332"/>
       <c r="D1" s="189"/>
       <c r="E1" s="188"/>
       <c r="F1" s="188"/>
@@ -27572,17 +27678,17 @@
     </row>
     <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="188"/>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
+      <c r="B2" s="332"/>
+      <c r="C2" s="332"/>
       <c r="D2" s="358" t="s">
         <v>408</v>
       </c>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
-      <c r="H2" s="327"/>
-      <c r="I2" s="327"/>
-      <c r="J2" s="327"/>
+      <c r="E2" s="332"/>
+      <c r="F2" s="332"/>
+      <c r="G2" s="332"/>
+      <c r="H2" s="332"/>
+      <c r="I2" s="332"/>
+      <c r="J2" s="332"/>
       <c r="K2" s="188"/>
       <c r="L2" s="190"/>
       <c r="M2" s="191"/>
@@ -27596,15 +27702,15 @@
     </row>
     <row r="3" spans="1:20" ht="15.6">
       <c r="A3" s="188"/>
-      <c r="B3" s="327"/>
-      <c r="C3" s="327"/>
-      <c r="D3" s="327"/>
-      <c r="E3" s="327"/>
-      <c r="F3" s="327"/>
-      <c r="G3" s="327"/>
-      <c r="H3" s="327"/>
-      <c r="I3" s="327"/>
-      <c r="J3" s="327"/>
+      <c r="B3" s="332"/>
+      <c r="C3" s="332"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
+      <c r="J3" s="332"/>
       <c r="K3" s="188"/>
       <c r="L3" s="190"/>
       <c r="M3" s="191"/>
@@ -27620,15 +27726,15 @@
     </row>
     <row r="4" spans="1:20" ht="15.6">
       <c r="A4" s="188"/>
-      <c r="B4" s="327"/>
-      <c r="C4" s="327"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="328"/>
-      <c r="G4" s="328"/>
-      <c r="H4" s="328"/>
-      <c r="I4" s="328"/>
-      <c r="J4" s="328"/>
+      <c r="B4" s="332"/>
+      <c r="C4" s="332"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="333"/>
+      <c r="G4" s="333"/>
+      <c r="H4" s="333"/>
+      <c r="I4" s="333"/>
+      <c r="J4" s="333"/>
       <c r="K4" s="188"/>
       <c r="L4" s="190"/>
       <c r="M4" s="361" t="s">
@@ -27733,7 +27839,7 @@
       <c r="T6" s="205"/>
     </row>
     <row r="7" spans="1:20" ht="19.8" customHeight="1">
-      <c r="A7" s="315"/>
+      <c r="A7" s="309"/>
       <c r="B7" s="202" t="s">
         <v>380</v>
       </c>
@@ -27769,7 +27875,7 @@
       <c r="T7" s="205"/>
     </row>
     <row r="8" spans="1:20" ht="20.399999999999999" customHeight="1">
-      <c r="A8" s="316"/>
+      <c r="A8" s="310"/>
       <c r="B8" s="202" t="s">
         <v>381</v>
       </c>
@@ -27994,7 +28100,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B30" sqref="B6:J35"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -28024,12 +28130,12 @@
       <c r="D1" s="374" t="s">
         <v>434</v>
       </c>
-      <c r="E1" s="327"/>
-      <c r="F1" s="327"/>
-      <c r="G1" s="327"/>
-      <c r="H1" s="327"/>
-      <c r="I1" s="327"/>
-      <c r="J1" s="327"/>
+      <c r="E1" s="332"/>
+      <c r="F1" s="332"/>
+      <c r="G1" s="332"/>
+      <c r="H1" s="332"/>
+      <c r="I1" s="332"/>
+      <c r="J1" s="332"/>
       <c r="K1" s="219"/>
       <c r="L1" s="219"/>
       <c r="M1" s="219"/>
@@ -28216,7 +28322,9 @@
       <c r="O6" s="240"/>
       <c r="P6" s="239"/>
       <c r="Q6" s="240"/>
-      <c r="R6" s="240"/>
+      <c r="R6" s="240" t="s">
+        <v>582</v>
+      </c>
       <c r="S6" s="240"/>
       <c r="T6" s="240"/>
     </row>
@@ -28364,7 +28472,9 @@
       <c r="O12" s="239"/>
       <c r="P12" s="239"/>
       <c r="Q12" s="240"/>
-      <c r="R12" s="240"/>
+      <c r="R12" s="240" t="s">
+        <v>582</v>
+      </c>
       <c r="S12" s="240"/>
       <c r="T12" s="240"/>
     </row>
@@ -29038,6 +29148,49 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:M28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W18" sqref="W18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData>
+    <row r="3" spans="2:13">
+      <c r="B3" s="56" t="s">
+        <v>580</v>
+      </c>
+      <c r="M3" s="56"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="56" t="s">
+        <v>581</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetData/>
+  <phoneticPr fontId="30" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -29046,9 +29199,9 @@
   </sheetPr>
   <dimension ref="A1:BQ81"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU65" sqref="AU65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -29138,40 +29291,40 @@
     </row>
     <row r="2" spans="1:69" ht="21" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="270" t="s">
+      <c r="B2" s="283" t="s">
         <v>368</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="284"/>
+      <c r="G2" s="284"/>
       <c r="H2" s="10"/>
-      <c r="I2" s="272"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="273"/>
-      <c r="L2" s="273"/>
-      <c r="M2" s="273"/>
-      <c r="N2" s="273"/>
-      <c r="O2" s="274"/>
-      <c r="P2" s="273"/>
-      <c r="Q2" s="273"/>
-      <c r="R2" s="273"/>
-      <c r="S2" s="273"/>
-      <c r="T2" s="273"/>
-      <c r="U2" s="273"/>
-      <c r="V2" s="273"/>
-      <c r="W2" s="273"/>
-      <c r="X2" s="273"/>
-      <c r="Y2" s="273"/>
-      <c r="Z2" s="273"/>
-      <c r="AA2" s="273"/>
-      <c r="AB2" s="273"/>
-      <c r="AC2" s="273"/>
-      <c r="AD2" s="273"/>
-      <c r="AE2" s="273"/>
-      <c r="AF2" s="273"/>
-      <c r="AG2" s="273"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
+      <c r="L2" s="286"/>
+      <c r="M2" s="286"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="286"/>
+      <c r="R2" s="286"/>
+      <c r="S2" s="286"/>
+      <c r="T2" s="286"/>
+      <c r="U2" s="286"/>
+      <c r="V2" s="286"/>
+      <c r="W2" s="286"/>
+      <c r="X2" s="286"/>
+      <c r="Y2" s="286"/>
+      <c r="Z2" s="286"/>
+      <c r="AA2" s="286"/>
+      <c r="AB2" s="286"/>
+      <c r="AC2" s="286"/>
+      <c r="AD2" s="286"/>
+      <c r="AE2" s="286"/>
+      <c r="AF2" s="286"/>
+      <c r="AG2" s="286"/>
       <c r="AH2" s="11"/>
       <c r="AI2" s="11"/>
       <c r="AJ2" s="11"/>
@@ -29282,45 +29435,45 @@
     </row>
     <row r="4" spans="1:69" ht="21" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="275" t="s">
+      <c r="B4" s="288" t="s">
         <v>369</v>
       </c>
-      <c r="C4" s="276"/>
-      <c r="D4" s="277" t="s">
+      <c r="C4" s="289"/>
+      <c r="D4" s="290" t="s">
         <v>370</v>
       </c>
-      <c r="E4" s="276"/>
-      <c r="F4" s="276"/>
-      <c r="G4" s="276"/>
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289"/>
       <c r="H4" s="66"/>
-      <c r="I4" s="278" t="s">
+      <c r="I4" s="291" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="276"/>
-      <c r="K4" s="276"/>
-      <c r="L4" s="276"/>
-      <c r="M4" s="276"/>
-      <c r="N4" s="276"/>
-      <c r="O4" s="276"/>
-      <c r="P4" s="279">
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
+      <c r="M4" s="289"/>
+      <c r="N4" s="289"/>
+      <c r="O4" s="289"/>
+      <c r="P4" s="292">
         <v>44830</v>
       </c>
-      <c r="Q4" s="279"/>
-      <c r="R4" s="279"/>
-      <c r="S4" s="279"/>
-      <c r="T4" s="279"/>
-      <c r="U4" s="279"/>
+      <c r="Q4" s="292"/>
+      <c r="R4" s="292"/>
+      <c r="S4" s="292"/>
+      <c r="T4" s="292"/>
+      <c r="U4" s="292"/>
       <c r="V4" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="W4" s="279">
+      <c r="W4" s="292">
         <v>44865</v>
       </c>
-      <c r="X4" s="279"/>
-      <c r="Y4" s="279"/>
-      <c r="Z4" s="279"/>
-      <c r="AA4" s="279"/>
-      <c r="AB4" s="279"/>
+      <c r="X4" s="292"/>
+      <c r="Y4" s="292"/>
+      <c r="Z4" s="292"/>
+      <c r="AA4" s="292"/>
+      <c r="AB4" s="292"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="9"/>
       <c r="AE4" s="9"/>
@@ -29365,32 +29518,32 @@
     </row>
     <row r="5" spans="1:69" ht="21" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="283"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284"/>
+      <c r="B5" s="272"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="274"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
+      <c r="G5" s="273"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="283"/>
-      <c r="J5" s="284"/>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="284"/>
-      <c r="N5" s="284"/>
-      <c r="O5" s="284"/>
-      <c r="P5" s="286"/>
-      <c r="Q5" s="284"/>
-      <c r="R5" s="284"/>
-      <c r="S5" s="284"/>
-      <c r="T5" s="284"/>
-      <c r="U5" s="284"/>
-      <c r="V5" s="284"/>
-      <c r="W5" s="284"/>
-      <c r="X5" s="284"/>
-      <c r="Y5" s="284"/>
-      <c r="Z5" s="284"/>
-      <c r="AA5" s="284"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="273"/>
+      <c r="L5" s="273"/>
+      <c r="M5" s="273"/>
+      <c r="N5" s="273"/>
+      <c r="O5" s="273"/>
+      <c r="P5" s="275"/>
+      <c r="Q5" s="273"/>
+      <c r="R5" s="273"/>
+      <c r="S5" s="273"/>
+      <c r="T5" s="273"/>
+      <c r="U5" s="273"/>
+      <c r="V5" s="273"/>
+      <c r="W5" s="273"/>
+      <c r="X5" s="273"/>
+      <c r="Y5" s="273"/>
+      <c r="Z5" s="273"/>
+      <c r="AA5" s="273"/>
       <c r="AB5" s="18"/>
       <c r="AC5" s="16"/>
       <c r="AD5" s="1"/>
@@ -29651,69 +29804,69 @@
     </row>
     <row r="9" spans="1:69" ht="17.25" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="287" t="s">
+      <c r="B9" s="276" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="287" t="s">
+      <c r="C9" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="287" t="s">
+      <c r="D9" s="276" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="287" t="s">
+      <c r="E9" s="276" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="287" t="s">
+      <c r="F9" s="276" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="287" t="s">
+      <c r="G9" s="276" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="269" t="s">
+      <c r="H9" s="282" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="288" t="s">
+      <c r="I9" s="277" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
-      <c r="M9" s="290"/>
-      <c r="N9" s="288" t="s">
+      <c r="J9" s="278"/>
+      <c r="K9" s="278"/>
+      <c r="L9" s="278"/>
+      <c r="M9" s="279"/>
+      <c r="N9" s="277" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="289"/>
-      <c r="P9" s="289"/>
-      <c r="Q9" s="289"/>
-      <c r="R9" s="290"/>
-      <c r="S9" s="288" t="s">
+      <c r="O9" s="278"/>
+      <c r="P9" s="278"/>
+      <c r="Q9" s="278"/>
+      <c r="R9" s="279"/>
+      <c r="S9" s="277" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="289"/>
-      <c r="U9" s="289"/>
-      <c r="V9" s="289"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="280" t="s">
+      <c r="T9" s="278"/>
+      <c r="U9" s="278"/>
+      <c r="V9" s="278"/>
+      <c r="W9" s="279"/>
+      <c r="X9" s="269" t="s">
         <v>61</v>
       </c>
-      <c r="Y9" s="291"/>
-      <c r="Z9" s="291"/>
-      <c r="AA9" s="291"/>
-      <c r="AB9" s="292"/>
-      <c r="AC9" s="280" t="s">
+      <c r="Y9" s="280"/>
+      <c r="Z9" s="280"/>
+      <c r="AA9" s="280"/>
+      <c r="AB9" s="281"/>
+      <c r="AC9" s="269" t="s">
         <v>62</v>
       </c>
-      <c r="AD9" s="291"/>
-      <c r="AE9" s="291"/>
-      <c r="AF9" s="291"/>
-      <c r="AG9" s="292"/>
-      <c r="AH9" s="280" t="s">
+      <c r="AD9" s="280"/>
+      <c r="AE9" s="280"/>
+      <c r="AF9" s="280"/>
+      <c r="AG9" s="281"/>
+      <c r="AH9" s="269" t="s">
         <v>63</v>
       </c>
-      <c r="AI9" s="281"/>
-      <c r="AJ9" s="281"/>
-      <c r="AK9" s="281"/>
-      <c r="AL9" s="282"/>
+      <c r="AI9" s="270"/>
+      <c r="AJ9" s="270"/>
+      <c r="AK9" s="270"/>
+      <c r="AL9" s="271"/>
       <c r="AM9" s="20"/>
       <c r="AN9" s="20"/>
       <c r="AO9" s="20"/>
@@ -29748,13 +29901,13 @@
     </row>
     <row r="10" spans="1:69" ht="17.25" customHeight="1">
       <c r="A10" s="25"/>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="269"/>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="282"/>
       <c r="I10" s="26" t="s">
         <v>7</v>
       </c>
@@ -34761,6 +34914,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:AG2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="W4:AB4"/>
     <mergeCell ref="AH9:AL9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
@@ -34777,15 +34939,6 @@
     <mergeCell ref="S9:W9"/>
     <mergeCell ref="X9:AB9"/>
     <mergeCell ref="AC9:AG9"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:AG2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="W4:AB4"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <conditionalFormatting sqref="H34:H81 H12:H32">
@@ -34913,290 +35066,283 @@
       </c>
     </row>
     <row r="6" spans="3:14" ht="15.6">
-      <c r="C6" s="293" t="s">
+      <c r="C6" s="295" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
-      <c r="M6" s="293"/>
-      <c r="N6" s="293"/>
+      <c r="D6" s="295"/>
+      <c r="E6" s="295"/>
+      <c r="F6" s="295"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="295"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="295"/>
+      <c r="L6" s="295"/>
+      <c r="M6" s="295"/>
+      <c r="N6" s="295"/>
     </row>
     <row r="7" spans="3:14" ht="27.6" customHeight="1">
       <c r="C7" s="83" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="295" t="s">
+      <c r="D7" s="294" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295"/>
-      <c r="M7" s="295"/>
-      <c r="N7" s="295"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="294"/>
+      <c r="N7" s="294"/>
     </row>
     <row r="8" spans="3:14" ht="40.799999999999997" customHeight="1">
       <c r="C8" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="295" t="s">
+      <c r="D8" s="294" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="295"/>
-      <c r="F8" s="295"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="295"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="295"/>
-      <c r="N8" s="295"/>
+      <c r="E8" s="294"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="294"/>
+      <c r="N8" s="294"/>
     </row>
     <row r="9" spans="3:14" ht="44.4" customHeight="1">
       <c r="C9" s="83" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="295" t="s">
+      <c r="D9" s="294" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="295"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="295"/>
-      <c r="M9" s="295"/>
-      <c r="N9" s="295"/>
+      <c r="E9" s="294"/>
+      <c r="F9" s="294"/>
+      <c r="G9" s="294"/>
+      <c r="H9" s="294"/>
+      <c r="I9" s="294"/>
+      <c r="J9" s="294"/>
+      <c r="K9" s="294"/>
+      <c r="L9" s="294"/>
+      <c r="M9" s="294"/>
+      <c r="N9" s="294"/>
     </row>
     <row r="10" spans="3:14" ht="333.6" customHeight="1">
       <c r="C10" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="296" t="s">
+      <c r="D10" s="297" t="s">
         <v>372</v>
       </c>
-      <c r="E10" s="297"/>
-      <c r="F10" s="297"/>
-      <c r="G10" s="297"/>
-      <c r="H10" s="297"/>
-      <c r="I10" s="297"/>
-      <c r="J10" s="297"/>
-      <c r="K10" s="297"/>
-      <c r="L10" s="297"/>
-      <c r="M10" s="297"/>
-      <c r="N10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="298"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="298"/>
+      <c r="N10" s="299"/>
     </row>
     <row r="11" spans="3:14" ht="27" customHeight="1">
       <c r="C11" s="83" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="295" t="s">
+      <c r="D11" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="E11" s="295"/>
-      <c r="F11" s="295"/>
-      <c r="G11" s="295"/>
-      <c r="H11" s="295"/>
-      <c r="I11" s="295"/>
-      <c r="J11" s="295"/>
-      <c r="K11" s="295"/>
-      <c r="L11" s="295"/>
-      <c r="M11" s="295"/>
-      <c r="N11" s="295"/>
+      <c r="E11" s="294"/>
+      <c r="F11" s="294"/>
+      <c r="G11" s="294"/>
+      <c r="H11" s="294"/>
+      <c r="I11" s="294"/>
+      <c r="J11" s="294"/>
+      <c r="K11" s="294"/>
+      <c r="L11" s="294"/>
+      <c r="M11" s="294"/>
+      <c r="N11" s="294"/>
     </row>
     <row r="12" spans="3:14" ht="15.6">
-      <c r="C12" s="294" t="s">
+      <c r="C12" s="296" t="s">
         <v>84</v>
       </c>
-      <c r="D12" s="294"/>
-      <c r="E12" s="294"/>
-      <c r="F12" s="294"/>
-      <c r="G12" s="294"/>
-      <c r="H12" s="294"/>
-      <c r="I12" s="294"/>
-      <c r="J12" s="294"/>
-      <c r="K12" s="294"/>
-      <c r="L12" s="294"/>
-      <c r="M12" s="294"/>
-      <c r="N12" s="294"/>
+      <c r="D12" s="296"/>
+      <c r="E12" s="296"/>
+      <c r="F12" s="296"/>
+      <c r="G12" s="296"/>
+      <c r="H12" s="296"/>
+      <c r="I12" s="296"/>
+      <c r="J12" s="296"/>
+      <c r="K12" s="296"/>
+      <c r="L12" s="296"/>
+      <c r="M12" s="296"/>
+      <c r="N12" s="296"/>
     </row>
     <row r="13" spans="3:14" ht="55.8" customHeight="1">
       <c r="C13" s="83" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="295" t="s">
+      <c r="D13" s="294" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="295"/>
-      <c r="F13" s="295"/>
-      <c r="G13" s="295"/>
-      <c r="H13" s="295"/>
-      <c r="I13" s="295"/>
-      <c r="J13" s="295"/>
-      <c r="K13" s="295"/>
-      <c r="L13" s="295"/>
-      <c r="M13" s="295"/>
-      <c r="N13" s="295"/>
+      <c r="E13" s="294"/>
+      <c r="F13" s="294"/>
+      <c r="G13" s="294"/>
+      <c r="H13" s="294"/>
+      <c r="I13" s="294"/>
+      <c r="J13" s="294"/>
+      <c r="K13" s="294"/>
+      <c r="L13" s="294"/>
+      <c r="M13" s="294"/>
+      <c r="N13" s="294"/>
     </row>
     <row r="14" spans="3:14" ht="52.2" customHeight="1">
       <c r="C14" s="83" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="295" t="s">
+      <c r="D14" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="295"/>
-      <c r="F14" s="295"/>
-      <c r="G14" s="295"/>
-      <c r="H14" s="295"/>
-      <c r="I14" s="295"/>
-      <c r="J14" s="295"/>
-      <c r="K14" s="295"/>
-      <c r="L14" s="295"/>
-      <c r="M14" s="295"/>
-      <c r="N14" s="295"/>
+      <c r="E14" s="294"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="294"/>
+      <c r="I14" s="294"/>
+      <c r="J14" s="294"/>
+      <c r="K14" s="294"/>
+      <c r="L14" s="294"/>
+      <c r="M14" s="294"/>
+      <c r="N14" s="294"/>
     </row>
     <row r="15" spans="3:14" ht="15.6">
-      <c r="C15" s="294" t="s">
+      <c r="C15" s="296" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="294"/>
-      <c r="E15" s="294"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="294"/>
-      <c r="H15" s="294"/>
-      <c r="I15" s="294"/>
-      <c r="J15" s="294"/>
-      <c r="K15" s="294"/>
-      <c r="L15" s="294"/>
-      <c r="M15" s="294"/>
-      <c r="N15" s="294"/>
+      <c r="D15" s="296"/>
+      <c r="E15" s="296"/>
+      <c r="F15" s="296"/>
+      <c r="G15" s="296"/>
+      <c r="H15" s="296"/>
+      <c r="I15" s="296"/>
+      <c r="J15" s="296"/>
+      <c r="K15" s="296"/>
+      <c r="L15" s="296"/>
+      <c r="M15" s="296"/>
+      <c r="N15" s="296"/>
     </row>
     <row r="16" spans="3:14" ht="137.4" customHeight="1">
       <c r="C16" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="D16" s="295" t="s">
+      <c r="D16" s="294" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="295"/>
-      <c r="I16" s="295"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
-      <c r="M16" s="295"/>
-      <c r="N16" s="295"/>
+      <c r="E16" s="294"/>
+      <c r="F16" s="294"/>
+      <c r="G16" s="294"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="294"/>
+      <c r="J16" s="294"/>
+      <c r="K16" s="294"/>
+      <c r="L16" s="294"/>
+      <c r="M16" s="294"/>
+      <c r="N16" s="294"/>
     </row>
     <row r="17" spans="3:14" ht="15.6">
       <c r="C17" s="76"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="299"/>
-      <c r="I17" s="299"/>
-      <c r="J17" s="299"/>
-      <c r="K17" s="299"/>
-      <c r="L17" s="299"/>
-      <c r="M17" s="299"/>
-      <c r="N17" s="299"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="293"/>
+      <c r="J17" s="293"/>
+      <c r="K17" s="293"/>
+      <c r="L17" s="293"/>
+      <c r="M17" s="293"/>
+      <c r="N17" s="293"/>
     </row>
     <row r="18" spans="3:14" ht="15.6">
       <c r="C18" s="76"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="299"/>
-      <c r="H18" s="299"/>
-      <c r="I18" s="299"/>
-      <c r="J18" s="299"/>
-      <c r="K18" s="299"/>
-      <c r="L18" s="299"/>
-      <c r="M18" s="299"/>
-      <c r="N18" s="299"/>
+      <c r="D18" s="293"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="293"/>
+      <c r="I18" s="293"/>
+      <c r="J18" s="293"/>
+      <c r="K18" s="293"/>
+      <c r="L18" s="293"/>
+      <c r="M18" s="293"/>
+      <c r="N18" s="293"/>
     </row>
     <row r="19" spans="3:14" ht="15.6">
       <c r="C19" s="76"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="299"/>
+      <c r="D19" s="293"/>
+      <c r="E19" s="293"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="293"/>
+      <c r="J19" s="293"/>
+      <c r="K19" s="293"/>
+      <c r="L19" s="293"/>
+      <c r="M19" s="293"/>
+      <c r="N19" s="293"/>
     </row>
     <row r="20" spans="3:14" ht="15.6">
       <c r="C20" s="76"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="299"/>
-      <c r="H20" s="299"/>
-      <c r="I20" s="299"/>
-      <c r="J20" s="299"/>
-      <c r="K20" s="299"/>
-      <c r="L20" s="299"/>
-      <c r="M20" s="299"/>
-      <c r="N20" s="299"/>
+      <c r="D20" s="293"/>
+      <c r="E20" s="293"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="293"/>
+      <c r="H20" s="293"/>
+      <c r="I20" s="293"/>
+      <c r="J20" s="293"/>
+      <c r="K20" s="293"/>
+      <c r="L20" s="293"/>
+      <c r="M20" s="293"/>
+      <c r="N20" s="293"/>
     </row>
     <row r="21" spans="3:14" ht="15.6">
       <c r="C21" s="76"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="299"/>
-      <c r="H21" s="299"/>
-      <c r="I21" s="299"/>
-      <c r="J21" s="299"/>
-      <c r="K21" s="299"/>
-      <c r="L21" s="299"/>
-      <c r="M21" s="299"/>
-      <c r="N21" s="299"/>
+      <c r="D21" s="293"/>
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="293"/>
+      <c r="J21" s="293"/>
+      <c r="K21" s="293"/>
+      <c r="L21" s="293"/>
+      <c r="M21" s="293"/>
+      <c r="N21" s="293"/>
     </row>
     <row r="22" spans="3:14" ht="15.6">
       <c r="C22" s="76"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="299"/>
-      <c r="H22" s="299"/>
-      <c r="I22" s="299"/>
-      <c r="J22" s="299"/>
-      <c r="K22" s="299"/>
-      <c r="L22" s="299"/>
-      <c r="M22" s="299"/>
-      <c r="N22" s="299"/>
+      <c r="D22" s="293"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="293"/>
+      <c r="K22" s="293"/>
+      <c r="L22" s="293"/>
+      <c r="M22" s="293"/>
+      <c r="N22" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D19:N19"/>
-    <mergeCell ref="D20:N20"/>
-    <mergeCell ref="D21:N21"/>
-    <mergeCell ref="D22:N22"/>
-    <mergeCell ref="D16:N16"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="D18:N18"/>
     <mergeCell ref="C6:N6"/>
     <mergeCell ref="C12:N12"/>
     <mergeCell ref="C15:N15"/>
@@ -35207,6 +35353,13 @@
     <mergeCell ref="D9:N9"/>
     <mergeCell ref="D10:N10"/>
     <mergeCell ref="D11:N11"/>
+    <mergeCell ref="D19:N19"/>
+    <mergeCell ref="D20:N20"/>
+    <mergeCell ref="D21:N21"/>
+    <mergeCell ref="D22:N22"/>
+    <mergeCell ref="D16:N16"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="D18:N18"/>
   </mergeCells>
   <phoneticPr fontId="30" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35563,8 +35716,8 @@
   </sheetPr>
   <dimension ref="C4:N43"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.109375" defaultRowHeight="15.6"/>
